--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-22060" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="486">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -934,567 +934,567 @@
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>API</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/login</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Case</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/checkRule</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/getInsttips</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditPlanList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/msgOptPatientList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/nextAuditTaskId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/analysisType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditDoctorList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/docGroupList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/download</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/deleteExportList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已审核医嘱列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/workStatistics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/workStatistics/export</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/addReplyTemplate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optRecipeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/getVitalSignStartDate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/getPeriod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/waitAuditIptList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/iptMsgPatientList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/msgOptRecipeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/waitAuditIptList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/auditSingle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/currentUser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/deptTree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/childrenDept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/deptList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/doctorInZone</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/childDrugCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/drugCategory</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/drugList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/productList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/childDrugProperty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/drugPropertyTree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/drugPropertyList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/childIcd10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/icd10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/payTypeList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/zoneList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditWorking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditConfig</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/msg/{messageId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditPlanSetting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/auditResultList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/optRecipeAllergyList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/engineMsgList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>aroundAuditResultId</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/export/{taskId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/exportList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>列1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/optAllergyList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/auditResultList/{optRecipeId}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/opt/engineMsgList/{id}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditresult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/resultReceive</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/patientCondtionList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取病人类型的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/replyTemplateList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/iptWardList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/medicationinfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/medicationinfo/export</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/iptPatient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>获取患者住院就诊信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/iptPatient</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/allergyList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>过敏列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/drugSensitiveList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/orderList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>药物医嘱列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/diagnoseList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>诊断信息列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/progressList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>病程记录列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/iptRecordList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入院记录列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/examList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检验列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/bacterialList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>细菌培养列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/operationList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手术列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生命体征列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/vitalSignList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/nonOrderList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>非药物医嘱列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>草药医嘱列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/herbOrderList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/specialExamList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特殊检验列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/imageList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>影像列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/pathologicalList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>病理列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/drugAuditRelated</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>关联点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/iptInfoAggregation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>住院汇总</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/ipt/all/iptList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>已审核住院列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditRefuse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打回处方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/auditAgree</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过处方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/api/v1/alertMssageStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">   </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方案</t>
@@ -1507,35 +1507,35 @@
   </si>
   <si>
     <t>作者:戴君君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试方案--审方质量评价（住院医嘱）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新建复核项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试要点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽取审方样本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生成审方评价项目及报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看审方评价项目及报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>评价审方质量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.进入新增复核项目页面，来源选择住院，其余复核条件显示正确（日期、药师、抽取方式）
@@ -1545,11 +1545,11 @@
 5.抽取方式：全部抽取、随机抽取两种方式；随机抽取：按百分比和按数量随机抽取；选择百分比，显示百分比输入框；选择指定数量随机，显示数量输入框，提示请输入大于0的整数
 6.抽取：点击抽取后展示符合条件的医嘱，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复核详情页（医嘱）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1621,7 +1621,7 @@
       </rPr>
       <t>合理？</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1700,20 +1700,20 @@
 7.审方质量评价页面，多一条记录，检查项目名称，创建时间，创建人，数据时间，复核进度是否正确
 </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>添加复核项目</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>审方质量评价
 查看项目报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查看个人复核结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1773,11 +1773,11 @@
 10.查看项目报表页，默认20条记录，下一页，跳转功能正常
 11.查看项目报表页，导出报表正常</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>个人复核结果查看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.过滤条件：复核日期、复核人、来源、复核结果
@@ -1787,15 +1787,15 @@
 5.医院、病区、科室、医生、复核人、复核时间、患者号、患者姓名、复核结果、操作
 6.点击查看或双击，进入复核详情页，复核的戳和复核记录
 7.返回列表，跳转到个人复核结果查看页（过滤条件后的）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复核详情页（处方）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试方案--审方质量评价（门诊处方）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.进入新增复核项目页面，来源选择门/急诊、门诊、急诊，其余复核条件显示正确（日期、药师、抽取方式）
@@ -1805,7 +1805,7 @@
 5.抽取方式：全部抽取、随机抽取两种方式；随机抽取：按百分比和按数量随机抽取；选择百分比，显示百分比输入框；选择指定数量随机，显示数量输入框，提示请输入大于0的整数
 6.抽取：点击抽取后展示符合条件的医嘱，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1876,26 +1876,82 @@
       </rPr>
       <t>合理？</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deleteReplyTemplate/{replyTemplateId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/openAlertMsgDpRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开警示信息描述按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警示信息申请状态，确认待查操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/endOfAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束审方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBeating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核药师工作状态心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/releaseAuditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束正在审核的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置任务的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditPlan/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2049,52 +2105,52 @@
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2104,24 +2160,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2140,28 +2187,37 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2215,16 +2271,6 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
@@ -2239,6 +2285,16 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2251,14 +2307,14 @@
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="5"/>
+    <tableColumn id="4" name="Method" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:F147" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:F147" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="E1:F147">
     <filterColumn colId="0">
       <filters>
@@ -2267,8 +2323,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="2">
-    <tableColumn id="1" name="Case" dataDxfId="2"/>
-    <tableColumn id="2" name="列1" dataDxfId="1"/>
+    <tableColumn id="1" name="Case" dataDxfId="1"/>
+    <tableColumn id="2" name="列1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4485,7 +4541,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
@@ -4500,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView topLeftCell="B123" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C165" sqref="C165"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4533,12 +4589,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
         <v>442</v>
@@ -4547,29 +4603,29 @@
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>474</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4583,11 +4639,11 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="C5" t="s">
         <v>311</v>
       </c>
@@ -4599,7 +4655,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="C6" t="s">
         <v>312</v>
       </c>
@@ -4623,7 +4679,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4641,7 +4697,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4659,7 +4715,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="C10" t="s">
         <v>333</v>
       </c>
@@ -4671,7 +4727,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -4683,43 +4739,43 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>477</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>479</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4737,43 +4793,43 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>483</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>482</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>481</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -4791,7 +4847,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4935,7 +4991,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -4953,7 +5009,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -4971,7 +5027,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -4989,7 +5045,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5007,7 +5063,7 @@
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5025,7 +5081,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" hidden="1">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5033,17 +5089,17 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>485</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5061,7 +5117,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5097,7 +5153,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -5115,7 +5171,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" hidden="1">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5133,7 +5189,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" hidden="1">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5151,7 +5207,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5169,7 +5225,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" hidden="1">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5187,7 +5243,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" hidden="1">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -5205,7 +5261,7 @@
       </c>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" hidden="1">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -5223,7 +5279,7 @@
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" hidden="1">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -5241,7 +5297,7 @@
       </c>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -5259,7 +5315,7 @@
       </c>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" hidden="1">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -5277,7 +5333,7 @@
       </c>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" hidden="1">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5295,7 +5351,7 @@
       </c>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" hidden="1">
       <c r="A46" t="s">
         <v>376</v>
       </c>
@@ -5315,7 +5371,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" hidden="1">
       <c r="C47" t="s">
         <v>316</v>
       </c>
@@ -5327,7 +5383,7 @@
       </c>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" hidden="1">
       <c r="C48" t="s">
         <v>317</v>
       </c>
@@ -5339,7 +5395,7 @@
       </c>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" hidden="1">
       <c r="C49" t="s">
         <v>337</v>
       </c>
@@ -5351,7 +5407,7 @@
       </c>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="C50" t="s">
         <v>338</v>
       </c>
@@ -5363,7 +5419,7 @@
       </c>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" hidden="1">
       <c r="C51" t="s">
         <v>339</v>
       </c>
@@ -5375,7 +5431,7 @@
       </c>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -5393,7 +5449,7 @@
       </c>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="C53" t="s">
         <v>341</v>
       </c>
@@ -5405,7 +5461,7 @@
       </c>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" hidden="1">
       <c r="C54" t="s">
         <v>343</v>
       </c>
@@ -5417,7 +5473,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" hidden="1">
       <c r="C55" t="s">
         <v>345</v>
       </c>
@@ -5429,7 +5485,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" hidden="1">
       <c r="C56" t="s">
         <v>346</v>
       </c>
@@ -5441,7 +5497,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" hidden="1">
       <c r="C57" t="s">
         <v>348</v>
       </c>
@@ -5453,7 +5509,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="C58" t="s">
         <v>349</v>
       </c>
@@ -5465,7 +5521,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" hidden="1">
       <c r="C59" t="s">
         <v>350</v>
       </c>
@@ -5477,7 +5533,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" hidden="1">
       <c r="C60" t="s">
         <v>351</v>
       </c>
@@ -5489,7 +5545,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" hidden="1">
       <c r="C61" t="s">
         <v>352</v>
       </c>
@@ -5501,7 +5557,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" hidden="1">
       <c r="C62" t="s">
         <v>353</v>
       </c>
@@ -5513,7 +5569,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" hidden="1">
       <c r="C63" t="s">
         <v>354</v>
       </c>
@@ -5525,7 +5581,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" hidden="1">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -5543,7 +5599,7 @@
       </c>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" hidden="1">
       <c r="C65" t="s">
         <v>377</v>
       </c>
@@ -5555,7 +5611,7 @@
       </c>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" hidden="1">
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -5567,7 +5623,7 @@
       </c>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5585,7 +5641,7 @@
       </c>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" hidden="1">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -5603,12 +5659,12 @@
       </c>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" hidden="1">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>470</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -5617,11 +5673,11 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>310</v>
+        <v>471</v>
       </c>
       <c r="F69" s="1"/>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" hidden="1">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -5639,7 +5695,7 @@
       </c>
       <c r="F70" s="1"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -5657,7 +5713,7 @@
       </c>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -5675,7 +5731,7 @@
       </c>
       <c r="F72" s="1"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -5693,7 +5749,7 @@
       </c>
       <c r="F73" s="1"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" hidden="1">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -5711,7 +5767,7 @@
       </c>
       <c r="F74" s="1"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -5729,7 +5785,7 @@
       </c>
       <c r="F75" s="1"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -5747,7 +5803,7 @@
       </c>
       <c r="F76" s="1"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" hidden="1">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -5765,7 +5821,7 @@
       </c>
       <c r="F77" s="1"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -5783,7 +5839,7 @@
       </c>
       <c r="F78" s="1"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -5801,7 +5857,7 @@
       </c>
       <c r="F79" s="1"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" t="s">
         <v>185</v>
       </c>
@@ -5819,7 +5875,7 @@
       </c>
       <c r="F80" s="1"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -5837,7 +5893,7 @@
       </c>
       <c r="F81" s="1"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -5855,7 +5911,7 @@
       </c>
       <c r="F82" s="1"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -5873,7 +5929,7 @@
       </c>
       <c r="F83" s="1"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -5891,7 +5947,7 @@
       </c>
       <c r="F84" s="1"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -5909,7 +5965,7 @@
       </c>
       <c r="F85" s="1"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -5929,7 +5985,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -5949,7 +6005,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" hidden="1">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6023,7 +6079,7 @@
       </c>
       <c r="F91" s="1"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -6041,7 +6097,7 @@
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -6059,7 +6115,7 @@
       </c>
       <c r="F93" s="1"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" hidden="1">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -6077,7 +6133,7 @@
       </c>
       <c r="F94" s="1"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -6095,7 +6151,7 @@
       </c>
       <c r="F95" s="1"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" hidden="1">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -6113,7 +6169,7 @@
       </c>
       <c r="F96" s="1"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -6131,7 +6187,7 @@
       </c>
       <c r="F97" s="1"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -6149,7 +6205,7 @@
       </c>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -6167,7 +6223,7 @@
       </c>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" hidden="1">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6185,7 +6241,7 @@
       </c>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" hidden="1">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -6203,7 +6259,7 @@
       </c>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -6221,7 +6277,7 @@
       </c>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" hidden="1">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -6239,7 +6295,7 @@
       </c>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -6257,7 +6313,7 @@
       </c>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" hidden="1">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -6275,7 +6331,7 @@
       </c>
       <c r="F105" s="1"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -6293,7 +6349,7 @@
       </c>
       <c r="F106" s="1"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" hidden="1">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -6311,7 +6367,7 @@
       </c>
       <c r="F107" s="1"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -6329,7 +6385,7 @@
       </c>
       <c r="F108" s="1"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -6347,7 +6403,7 @@
       </c>
       <c r="F109" s="1"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -6365,7 +6421,7 @@
       </c>
       <c r="F110" s="1"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -6419,7 +6475,7 @@
       </c>
       <c r="F113" s="1"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -6455,7 +6511,7 @@
       </c>
       <c r="F115" s="1"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" hidden="1">
       <c r="B116" t="s">
         <v>245</v>
       </c>
@@ -6470,7 +6526,7 @@
       </c>
       <c r="F116" s="1"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="B117" t="s">
         <v>247</v>
       </c>
@@ -6497,7 +6553,7 @@
       </c>
       <c r="F118" s="1"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6515,7 +6571,7 @@
       </c>
       <c r="F119" s="1"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" hidden="1">
       <c r="B120" t="s">
         <v>252</v>
       </c>
@@ -6548,7 +6604,7 @@
       </c>
       <c r="F121" s="1"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="C122" t="s">
         <v>397</v>
       </c>
@@ -6560,7 +6616,7 @@
       </c>
       <c r="F122" s="1"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" hidden="1">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -6578,7 +6634,7 @@
       </c>
       <c r="F123" s="1"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -6596,7 +6652,7 @@
       </c>
       <c r="F124" s="1"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -6616,7 +6672,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -6634,7 +6690,7 @@
       </c>
       <c r="F126" s="1"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -6652,7 +6708,7 @@
       </c>
       <c r="F127" s="1"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -6670,7 +6726,7 @@
       </c>
       <c r="F128" s="1"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -6688,7 +6744,7 @@
       </c>
       <c r="F129" s="1"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -6708,7 +6764,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -6726,7 +6782,7 @@
       </c>
       <c r="F131" s="1"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -6744,7 +6800,7 @@
       </c>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -6762,7 +6818,7 @@
       </c>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="C134" t="s">
         <v>270</v>
       </c>
@@ -6854,7 +6910,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="C140" t="s">
         <v>391</v>
       </c>
@@ -6866,7 +6922,7 @@
       </c>
       <c r="F140" s="1"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -6884,7 +6940,7 @@
       </c>
       <c r="F141" s="1"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -6920,25 +6976,25 @@
       </c>
       <c r="F143" s="1"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>292</v>
+        <v>473</v>
       </c>
       <c r="C144" t="s">
-        <v>293</v>
+        <v>472</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F144" s="1"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -6956,7 +7012,7 @@
       </c>
       <c r="F145" s="1"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -6974,7 +7030,7 @@
       </c>
       <c r="F146" s="1"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -6998,7 +7054,7 @@
       </c>
       <c r="E150" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -7007,7 +7063,7 @@
       </c>
       <c r="E151" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -7016,9 +7072,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E150:E1048576 E1:E148">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7040,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7054,103 +7110,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="12" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="21" customFormat="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:5" s="15" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="14" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="315" customHeight="1">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="E4" s="11"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="195" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="270" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
@@ -7179,12 +7235,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="5" t="s">
         <v>447</v>
       </c>
@@ -7207,75 +7263,75 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="255">
-      <c r="A4" s="11"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="1:5" ht="195">
-      <c r="A5" s="11"/>
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="165">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5" ht="300">
-      <c r="A6" s="11"/>
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="255">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:5" ht="120">
-      <c r="A7" s="11"/>
-      <c r="B7" s="9" t="s">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="105">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="E7" s="11"/>
+      <c r="E7" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="576">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -1013,79 +1013,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/workStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/workStatistics/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/addReplyTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getVitalSignStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/waitAuditIptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/iptMsgPatientList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/msgOptRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/waitAuditIptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/auditSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/currentUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deptTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childrenDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/doctorInZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childDrugCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/drugCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/productList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childDrugProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugPropertyTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugPropertyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childIcd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/icd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/payTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/zoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditWorking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/msg/{messageId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditPlanSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeSpecialExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optElectronicMedical/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeElectronicMedical/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeOperationList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeImageList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeSpecialExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/auditResultList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeAllergyList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/engineMsgList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/recipeInfo/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/export/{taskId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/workStatistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/workStatistics/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/addReplyTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getVitalSignStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/waitAuditIptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/iptMsgPatientList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/msgOptRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/waitAuditIptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/auditSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/currentUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/deptTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childrenDept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/deptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/doctorInZone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childDrugCategory</t>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/recipeInfo/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optOperationList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeImageList/{optRecipeId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1093,7 +1257,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/drugCategory</t>
+    <t>/api/v1/opt/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optAllergyList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/auditResultList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/engineMsgList/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/resultReceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/patientCondtionList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取病人类型的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/replyTemplateList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/iptWardList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/medicationinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/medicationinfo/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/iptPatient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取患者住院就诊信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/iptPatient</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/allergyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过敏列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/drugSensitiveList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1101,11 +1333,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/drugList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/productList</t>
+    <t>/api/v1/ipt/all/orderList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药物医嘱列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/diagnoseList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断信息列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/progressList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病程记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/iptRecordList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入院记录列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/examList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/bacterialList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细菌培养列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1113,286 +1385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/childDrugProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/drugPropertyTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/drugPropertyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childIcd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/icd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/payTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/zoneList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditWorking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/msg/{messageId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditPlanSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/auditResultList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeAllergyList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/engineMsgList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/export/{taskId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optAllergyList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/auditResultList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/engineMsgList/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/resultReceive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/patientCondtionList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取病人类型的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/replyTemplateList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/iptWardList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/medicationinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/medicationinfo/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/iptPatient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取患者住院就诊信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/iptPatient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/allergyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过敏列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/drugSensitiveList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/orderList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药物医嘱列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/diagnoseList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断信息列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/progressList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病程记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/iptRecordList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入院记录列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/examList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检验列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/bacterialList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细菌培养列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/ipt/all/operationList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,10 +1482,6 @@
   </si>
   <si>
     <t>/api/v1/alertMssageStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1944,6 +1932,321 @@
   </si>
   <si>
     <t>/api/v1/auditPlan/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置的审方方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/batchPending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchRefuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extractIptCheckData</t>
+  </si>
+  <si>
+    <t>抽取住院复核数据</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
+  </si>
+  <si>
+    <t>getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>getIptCheckData</t>
+  </si>
+  <si>
+    <t>住院复核数据列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+  </si>
+  <si>
+    <t>checkIptOrderData</t>
+  </si>
+  <si>
+    <t>住院医嘱复核数据详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
+  </si>
+  <si>
+    <t>getCheckResult</t>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+  </si>
+  <si>
+    <t>saveCheckResult</t>
+  </si>
+  <si>
+    <t>保存复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/saveCheckResult</t>
+  </si>
+  <si>
+    <t>复核项目列表</t>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+  </si>
+  <si>
+    <t>查看处方列表</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckResultList</t>
+  </si>
+  <si>
+    <t>抽取接口</t>
+  </si>
+  <si>
+    <t>抽取调用接口</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckList</t>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+  </si>
+  <si>
+    <t>/deleteProject</t>
+  </si>
+  <si>
+    <t>删除项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+  </si>
+  <si>
+    <t>saveProject</t>
+  </si>
+  <si>
+    <t>保存项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+  </si>
+  <si>
+    <t>/opt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>门诊已复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>/opt/recipeInfo</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
+  </si>
+  <si>
+    <t>saveOperation</t>
+  </si>
+  <si>
+    <t>保存复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/saveOperation</t>
+  </si>
+  <si>
+    <t>getOperation</t>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+  </si>
+  <si>
+    <t>/opt/nextId</t>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+  </si>
+  <si>
+    <t>/opt/previousId</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+  </si>
+  <si>
+    <t>查看项目报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+  </si>
+  <si>
+    <t>/export</t>
+  </si>
+  <si>
+    <t>导出报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊已复核数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2103,7 +2406,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2151,8 +2454,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2219,8 +2534,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="59">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2244,6 +2566,12 @@
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2267,9 +2595,48 @@
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -2285,46 +2652,43 @@
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D147" totalsRowShown="0">
-  <autoFilter ref="A1:D147"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D167" totalsRowShown="0">
+  <autoFilter ref="A1:D167">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="GET"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="4"/>
+    <tableColumn id="4" name="Method" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:F147" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="E1:F147">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G167" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="E1:G167">
     <filterColumn colId="0">
       <filters>
         <filter val="N"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Case" dataDxfId="1"/>
-    <tableColumn id="2" name="列1" dataDxfId="0"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Case" dataDxfId="7"/>
+    <tableColumn id="2" name="列1" dataDxfId="6"/>
+    <tableColumn id="3" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2652,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A142" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4537,6 +4901,286 @@
         <v>302</v>
       </c>
       <c r="D147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>492</v>
+      </c>
+      <c r="C148" t="s">
+        <v>493</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>494</v>
+      </c>
+      <c r="B149" t="s">
+        <v>495</v>
+      </c>
+      <c r="C149" t="s">
+        <v>496</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>497</v>
+      </c>
+      <c r="B150" t="s">
+        <v>498</v>
+      </c>
+      <c r="C150" t="s">
+        <v>499</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>500</v>
+      </c>
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+      <c r="C151" t="s">
+        <v>502</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>503</v>
+      </c>
+      <c r="B152" t="s">
+        <v>504</v>
+      </c>
+      <c r="C152" t="s">
+        <v>505</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>506</v>
+      </c>
+      <c r="B153" t="s">
+        <v>507</v>
+      </c>
+      <c r="C153" t="s">
+        <v>508</v>
+      </c>
+      <c r="D153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>509</v>
+      </c>
+      <c r="B154" t="s">
+        <v>510</v>
+      </c>
+      <c r="C154" t="s">
+        <v>511</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>512</v>
+      </c>
+      <c r="B155" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>515</v>
+      </c>
+      <c r="B156" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" t="s">
+        <v>517</v>
+      </c>
+      <c r="D156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>518</v>
+      </c>
+      <c r="B157" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>520</v>
+      </c>
+      <c r="B158" t="s">
+        <v>521</v>
+      </c>
+      <c r="C158" t="s">
+        <v>522</v>
+      </c>
+      <c r="D158" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>523</v>
+      </c>
+      <c r="B159" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" t="s">
+        <v>525</v>
+      </c>
+      <c r="D159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>526</v>
+      </c>
+      <c r="B160" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" t="s">
+        <v>528</v>
+      </c>
+      <c r="D160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>529</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" t="s">
+        <v>530</v>
+      </c>
+      <c r="D161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>531</v>
+      </c>
+      <c r="B162" t="s">
+        <v>532</v>
+      </c>
+      <c r="C162" t="s">
+        <v>533</v>
+      </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>534</v>
+      </c>
+      <c r="B163" t="s">
+        <v>535</v>
+      </c>
+      <c r="C163" t="s">
+        <v>536</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>537</v>
+      </c>
+      <c r="B164" t="s">
+        <v>538</v>
+      </c>
+      <c r="C164" t="s">
+        <v>539</v>
+      </c>
+      <c r="D164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>540</v>
+      </c>
+      <c r="B165" t="s">
+        <v>538</v>
+      </c>
+      <c r="C165" t="s">
+        <v>541</v>
+      </c>
+      <c r="D165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>542</v>
+      </c>
+      <c r="B166" t="s">
+        <v>542</v>
+      </c>
+      <c r="C166" t="s">
+        <v>543</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>544</v>
+      </c>
+      <c r="B167" t="s">
+        <v>545</v>
+      </c>
+      <c r="C167" t="s">
+        <v>546</v>
+      </c>
+      <c r="D167" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4554,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D172" sqref="D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4569,7 +5213,7 @@
     <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>303</v>
       </c>
@@ -4586,18 +5230,21 @@
         <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1">
+        <v>378</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -4606,16 +5253,17 @@
         <v>309</v>
       </c>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" hidden="1">
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -4624,8 +5272,9 @@
         <v>309</v>
       </c>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4642,8 +5291,9 @@
         <v>309</v>
       </c>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" hidden="1">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" hidden="1">
       <c r="C5" t="s">
         <v>311</v>
       </c>
@@ -4654,8 +5304,9 @@
         <v>309</v>
       </c>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" hidden="1">
       <c r="C6" t="s">
         <v>312</v>
       </c>
@@ -4666,10 +5317,11 @@
         <v>309</v>
       </c>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>13</v>
+        <v>484</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -4678,8 +5330,9 @@
         <v>310</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4687,7 +5340,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -4696,8 +5349,9 @@
         <v>309</v>
       </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" hidden="1">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4705,19 +5359,20 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" hidden="1">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" hidden="1">
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -4726,8 +5381,9 @@
         <v>309</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" hidden="1">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" hidden="1">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -4738,16 +5394,17 @@
         <v>309</v>
       </c>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" hidden="1">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -4756,16 +5413,17 @@
         <v>309</v>
       </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" hidden="1">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -4774,8 +5432,9 @@
         <v>309</v>
       </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" hidden="1">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4783,7 +5442,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -4792,16 +5451,17 @@
         <v>309</v>
       </c>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" hidden="1">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -4810,16 +5470,17 @@
         <v>309</v>
       </c>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" hidden="1">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C16" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -4828,16 +5489,17 @@
         <v>309</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" hidden="1">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -4846,16 +5508,17 @@
         <v>309</v>
       </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" hidden="1">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -4864,8 +5527,9 @@
         <v>309</v>
       </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -4873,7 +5537,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>490</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -4882,8 +5546,9 @@
         <v>310</v>
       </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4891,7 +5556,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>489</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -4900,8 +5565,9 @@
         <v>310</v>
       </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -4909,7 +5575,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>488</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -4918,8 +5584,9 @@
         <v>310</v>
       </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -4936,8 +5603,9 @@
         <v>310</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -4954,8 +5622,9 @@
         <v>310</v>
       </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -4972,26 +5641,28 @@
         <v>310</v>
       </c>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>485</v>
       </c>
       <c r="C25" t="s">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>310</v>
+        <v>486</v>
       </c>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" hidden="1">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5008,8 +5679,9 @@
         <v>309</v>
       </c>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" hidden="1">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -5026,8 +5698,9 @@
         <v>309</v>
       </c>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" hidden="1">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5044,8 +5717,9 @@
         <v>309</v>
       </c>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" hidden="1">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5062,8 +5736,9 @@
         <v>309</v>
       </c>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" hidden="1">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5080,8 +5755,9 @@
         <v>309</v>
       </c>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" hidden="1">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5089,7 +5765,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -5098,8 +5774,9 @@
         <v>309</v>
       </c>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" hidden="1">
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5116,8 +5793,9 @@
         <v>309</v>
       </c>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" hidden="1">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5125,7 +5803,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -5134,8 +5812,9 @@
         <v>309</v>
       </c>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>88</v>
       </c>
@@ -5143,7 +5822,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>487</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -5152,8 +5831,9 @@
         <v>310</v>
       </c>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" hidden="1">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -5170,8 +5850,9 @@
         <v>309</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" hidden="1">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5179,7 +5860,7 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -5188,8 +5869,9 @@
         <v>309</v>
       </c>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" hidden="1">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5197,7 +5879,7 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -5206,8 +5888,9 @@
         <v>309</v>
       </c>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" hidden="1">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5215,7 +5898,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -5224,8 +5907,9 @@
         <v>309</v>
       </c>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" hidden="1">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5233,7 +5917,7 @@
         <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -5242,8 +5926,9 @@
         <v>309</v>
       </c>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" hidden="1">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -5251,7 +5936,7 @@
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -5260,8 +5945,9 @@
         <v>309</v>
       </c>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" hidden="1">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -5269,7 +5955,7 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -5278,8 +5964,9 @@
         <v>309</v>
       </c>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" hidden="1">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -5287,17 +5974,18 @@
         <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" hidden="1">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -5305,7 +5993,7 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -5314,8 +6002,9 @@
         <v>309</v>
       </c>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" hidden="1">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -5323,17 +6012,18 @@
         <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" hidden="1">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -5341,7 +6031,7 @@
         <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -5350,16 +6040,17 @@
         <v>309</v>
       </c>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" hidden="1">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -5368,10 +6059,11 @@
         <v>309</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" hidden="1">
       <c r="C47" t="s">
         <v>316</v>
       </c>
@@ -5382,8 +6074,9 @@
         <v>309</v>
       </c>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" hidden="1">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" hidden="1">
       <c r="C48" t="s">
         <v>317</v>
       </c>
@@ -5394,35 +6087,38 @@
         <v>309</v>
       </c>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" hidden="1">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" hidden="1">
       <c r="C49" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" hidden="1">
+      <c r="C50" t="s">
         <v>337</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" hidden="1">
-      <c r="C50" t="s">
+      <c r="D50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" hidden="1">
+      <c r="C51" t="s">
         <v>338</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" hidden="1">
-      <c r="C51" t="s">
-        <v>339</v>
-      </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
       </c>
@@ -5430,8 +6126,9 @@
         <v>309</v>
       </c>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" hidden="1">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -5439,140 +6136,151 @@
         <v>130</v>
       </c>
       <c r="C52" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" hidden="1">
+      <c r="C53" t="s">
         <v>340</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" hidden="1">
-      <c r="C53" t="s">
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" hidden="1">
+      <c r="C54" t="s">
         <v>342</v>
       </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" hidden="1">
-      <c r="C54" t="s">
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" hidden="1">
+      <c r="C55" t="s">
         <v>344</v>
       </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" hidden="1">
-      <c r="C55" t="s">
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" hidden="1">
+      <c r="C56" t="s">
         <v>345</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" hidden="1">
-      <c r="C56" t="s">
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" hidden="1">
+      <c r="C57" t="s">
         <v>347</v>
       </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" hidden="1">
-      <c r="C57" t="s">
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" hidden="1">
+      <c r="C58" t="s">
         <v>348</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" hidden="1">
-      <c r="C58" t="s">
+      <c r="D58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" hidden="1">
+      <c r="C59" t="s">
         <v>349</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" hidden="1">
-      <c r="C59" t="s">
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" hidden="1">
+      <c r="C60" t="s">
         <v>350</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" hidden="1">
-      <c r="C60" t="s">
+      <c r="D60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" hidden="1">
+      <c r="C61" t="s">
         <v>351</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" hidden="1">
-      <c r="C61" t="s">
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" hidden="1">
+      <c r="C62" t="s">
         <v>352</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" hidden="1">
-      <c r="C62" t="s">
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" hidden="1">
+      <c r="C63" t="s">
         <v>353</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" hidden="1">
-      <c r="C63" t="s">
-        <v>354</v>
-      </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
       </c>
@@ -5580,8 +6288,9 @@
         <v>309</v>
       </c>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" hidden="1">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -5598,20 +6307,22 @@
         <v>309</v>
       </c>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" hidden="1">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" hidden="1">
       <c r="C65" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" hidden="1">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" hidden="1">
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -5622,8 +6333,9 @@
         <v>309</v>
       </c>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" hidden="1">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -5631,7 +6343,7 @@
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
@@ -5640,8 +6352,9 @@
         <v>309</v>
       </c>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" hidden="1">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -5658,13 +6371,14 @@
         <v>309</v>
       </c>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" hidden="1">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -5673,19 +6387,20 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" hidden="1">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" t="s">
         <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
@@ -5694,16 +6409,17 @@
         <v>309</v>
       </c>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" hidden="1">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -5712,8 +6428,9 @@
         <v>309</v>
       </c>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="1:6" hidden="1">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -5721,25 +6438,26 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" hidden="1">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C73" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
@@ -5748,16 +6466,17 @@
         <v>309</v>
       </c>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="1:6" hidden="1">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" t="s">
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C74" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
@@ -5766,16 +6485,17 @@
         <v>309</v>
       </c>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="1:6" hidden="1">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" t="s">
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C75" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
@@ -5784,16 +6504,17 @@
         <v>309</v>
       </c>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="1:6" hidden="1">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" t="s">
         <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C76" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
@@ -5802,16 +6523,17 @@
         <v>309</v>
       </c>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="1:6" hidden="1">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" t="s">
         <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C77" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
@@ -5820,34 +6542,36 @@
         <v>309</v>
       </c>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="1:6" hidden="1">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" t="s">
         <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C78" t="s">
+        <v>413</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" hidden="1">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" t="s">
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -5856,16 +6580,17 @@
         <v>309</v>
       </c>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:6" hidden="1">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" t="s">
         <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C80" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -5874,16 +6599,17 @@
         <v>309</v>
       </c>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" hidden="1">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
         <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -5892,16 +6618,17 @@
         <v>309</v>
       </c>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6" hidden="1">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" t="s">
         <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C82" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
@@ -5910,16 +6637,17 @@
         <v>309</v>
       </c>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6" hidden="1">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" t="s">
         <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C83" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
@@ -5928,16 +6656,17 @@
         <v>309</v>
       </c>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6" hidden="1">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
         <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
@@ -5946,34 +6675,36 @@
         <v>309</v>
       </c>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6" hidden="1">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
         <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C85" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6" hidden="1">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" t="s">
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C86" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
@@ -5982,30 +6713,32 @@
         <v>309</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" t="s">
         <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C87" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6013,7 +6746,7 @@
         <v>321</v>
       </c>
       <c r="C88" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
@@ -6022,8 +6755,9 @@
         <v>309</v>
       </c>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>121</v>
       </c>
@@ -6031,7 +6765,7 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
@@ -6040,10 +6774,11 @@
         <v>310</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>377</v>
+      </c>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -6060,8 +6795,9 @@
         <v>310</v>
       </c>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -6078,16 +6814,17 @@
         <v>310</v>
       </c>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="1:6" hidden="1">
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
         <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C92" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>11</v>
@@ -6096,8 +6833,9 @@
         <v>309</v>
       </c>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="1:6" hidden="1">
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -6105,7 +6843,7 @@
         <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
@@ -6114,8 +6852,9 @@
         <v>309</v>
       </c>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="1:6" hidden="1">
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -6132,8 +6871,9 @@
         <v>309</v>
       </c>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6" hidden="1">
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -6150,8 +6890,9 @@
         <v>309</v>
       </c>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="1:6" hidden="1">
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -6168,8 +6909,9 @@
         <v>309</v>
       </c>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="1:6" hidden="1">
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -6186,8 +6928,9 @@
         <v>309</v>
       </c>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1">
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -6204,8 +6947,9 @@
         <v>309</v>
       </c>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="1:6" hidden="1">
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -6222,8 +6966,9 @@
         <v>309</v>
       </c>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="1:6" hidden="1">
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6240,8 +6985,9 @@
         <v>309</v>
       </c>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="1:6" hidden="1">
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -6258,8 +7004,9 @@
         <v>309</v>
       </c>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="1:6" hidden="1">
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -6276,8 +7023,9 @@
         <v>309</v>
       </c>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" hidden="1">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -6294,8 +7042,9 @@
         <v>309</v>
       </c>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="1:6" hidden="1">
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -6312,8 +7061,9 @@
         <v>309</v>
       </c>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="1:6" hidden="1">
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -6330,8 +7080,9 @@
         <v>309</v>
       </c>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="1:6" hidden="1">
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -6348,8 +7099,9 @@
         <v>309</v>
       </c>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="1:6" hidden="1">
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -6366,8 +7118,9 @@
         <v>309</v>
       </c>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="1:6" hidden="1">
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -6384,8 +7137,9 @@
         <v>309</v>
       </c>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="1:6" hidden="1">
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -6402,8 +7156,9 @@
         <v>309</v>
       </c>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="1:6" hidden="1">
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -6420,8 +7175,9 @@
         <v>309</v>
       </c>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1">
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -6429,7 +7185,7 @@
         <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>11</v>
@@ -6438,8 +7194,9 @@
         <v>309</v>
       </c>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -6456,8 +7213,9 @@
         <v>310</v>
       </c>
       <c r="F112" s="1"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>213</v>
       </c>
@@ -6465,7 +7223,7 @@
         <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>14</v>
@@ -6474,8 +7232,9 @@
         <v>310</v>
       </c>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1">
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -6483,7 +7242,7 @@
         <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>11</v>
@@ -6492,8 +7251,9 @@
         <v>309</v>
       </c>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>242</v>
       </c>
@@ -6501,7 +7261,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -6510,8 +7270,9 @@
         <v>310</v>
       </c>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="1:6" hidden="1">
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" hidden="1">
       <c r="B116" t="s">
         <v>245</v>
       </c>
@@ -6525,13 +7286,14 @@
         <v>309</v>
       </c>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="1:6" hidden="1">
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" hidden="1">
       <c r="B117" t="s">
         <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
@@ -6540,8 +7302,9 @@
         <v>309</v>
       </c>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7">
       <c r="C118" t="s">
         <v>249</v>
       </c>
@@ -6552,8 +7315,9 @@
         <v>310</v>
       </c>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1">
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -6570,8 +7334,9 @@
         <v>309</v>
       </c>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1">
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" hidden="1">
       <c r="B120" t="s">
         <v>252</v>
       </c>
@@ -6585,8 +7350,9 @@
         <v>309</v>
       </c>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>254</v>
       </c>
@@ -6594,7 +7360,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -6603,20 +7369,22 @@
         <v>310</v>
       </c>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1">
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" hidden="1">
       <c r="C122" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F122" s="1"/>
-    </row>
-    <row r="123" spans="1:6" hidden="1">
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -6624,7 +7392,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
@@ -6633,8 +7401,9 @@
         <v>309</v>
       </c>
       <c r="F123" s="1"/>
-    </row>
-    <row r="124" spans="1:6" hidden="1">
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -6642,7 +7411,7 @@
         <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
@@ -6651,8 +7420,9 @@
         <v>309</v>
       </c>
       <c r="F124" s="1"/>
-    </row>
-    <row r="125" spans="1:6" hidden="1">
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -6660,7 +7430,7 @@
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
@@ -6669,10 +7439,11 @@
         <v>309</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -6680,17 +7451,18 @@
         <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F126" s="1"/>
-    </row>
-    <row r="127" spans="1:6" hidden="1">
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -6698,17 +7470,18 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F127" s="1"/>
-    </row>
-    <row r="128" spans="1:6" hidden="1">
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -6716,7 +7489,7 @@
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
@@ -6725,8 +7498,9 @@
         <v>309</v>
       </c>
       <c r="F128" s="1"/>
-    </row>
-    <row r="129" spans="1:6" hidden="1">
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -6734,7 +7508,7 @@
         <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -6743,8 +7517,9 @@
         <v>309</v>
       </c>
       <c r="F129" s="1"/>
-    </row>
-    <row r="130" spans="1:6" hidden="1">
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -6752,7 +7527,7 @@
         <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -6761,10 +7536,11 @@
         <v>309</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -6772,7 +7548,7 @@
         <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
@@ -6781,8 +7557,9 @@
         <v>309</v>
       </c>
       <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="1:6" hidden="1">
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -6790,7 +7567,7 @@
         <v>110</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
@@ -6799,8 +7576,9 @@
         <v>309</v>
       </c>
       <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="1:6" hidden="1">
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -6808,17 +7586,18 @@
         <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F133" s="1"/>
-    </row>
-    <row r="134" spans="1:6" hidden="1">
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" hidden="1">
       <c r="C134" t="s">
         <v>270</v>
       </c>
@@ -6829,8 +7608,9 @@
         <v>309</v>
       </c>
       <c r="F134" s="1"/>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>271</v>
       </c>
@@ -6847,8 +7627,9 @@
         <v>310</v>
       </c>
       <c r="F135" s="1"/>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>274</v>
       </c>
@@ -6865,8 +7646,9 @@
         <v>310</v>
       </c>
       <c r="F136" s="1"/>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>277</v>
       </c>
@@ -6883,8 +7665,9 @@
         <v>310</v>
       </c>
       <c r="F137" s="1"/>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="C138" t="s">
         <v>280</v>
       </c>
@@ -6895,10 +7678,11 @@
         <v>310</v>
       </c>
       <c r="F138" s="1"/>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="C139" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -6907,12 +7691,13 @@
         <v>310</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1">
+        <v>377</v>
+      </c>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" hidden="1">
       <c r="C140" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
@@ -6921,16 +7706,24 @@
         <v>309</v>
       </c>
       <c r="F140" s="1"/>
-    </row>
-    <row r="141" spans="1:6" hidden="1">
+      <c r="G140" s="1"/>
+      <c r="H140" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I140" s="1">
+        <f>COUNTIF(表格4[Case],"N")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" t="s">
         <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C141" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
@@ -6939,8 +7732,9 @@
         <v>309</v>
       </c>
       <c r="F141" s="1"/>
-    </row>
-    <row r="142" spans="1:6" hidden="1">
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -6948,7 +7742,7 @@
         <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -6957,8 +7751,9 @@
         <v>309</v>
       </c>
       <c r="F142" s="1"/>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>288</v>
       </c>
@@ -6966,7 +7761,7 @@
         <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
@@ -6975,16 +7770,17 @@
         <v>310</v>
       </c>
       <c r="F143" s="1"/>
-    </row>
-    <row r="144" spans="1:6" hidden="1">
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C144" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -6993,8 +7789,9 @@
         <v>309</v>
       </c>
       <c r="F144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" hidden="1">
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -7002,7 +7799,7 @@
         <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -7011,8 +7808,9 @@
         <v>309</v>
       </c>
       <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="1:6" hidden="1">
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -7020,7 +7818,7 @@
         <v>298</v>
       </c>
       <c r="C146" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
@@ -7029,8 +7827,9 @@
         <v>309</v>
       </c>
       <c r="F146" s="1"/>
-    </row>
-    <row r="147" spans="1:6" hidden="1">
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -7038,7 +7837,7 @@
         <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
@@ -7047,34 +7846,425 @@
         <v>309</v>
       </c>
       <c r="F147" s="1"/>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" t="s">
+        <v>492</v>
+      </c>
+      <c r="C148" t="s">
+        <v>493</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="F148" s="24"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" hidden="1">
+      <c r="A149" t="s">
+        <v>494</v>
+      </c>
+      <c r="B149" t="s">
+        <v>556</v>
+      </c>
+      <c r="C149" t="s">
+        <v>552</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F149" s="24"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>497</v>
+      </c>
+      <c r="B150" t="s">
+        <v>498</v>
+      </c>
+      <c r="C150" t="s">
+        <v>575</v>
+      </c>
       <c r="D150" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E150" s="1">
+        <v>14</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="F150" s="24"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" hidden="1">
+      <c r="A151" t="s">
+        <v>500</v>
+      </c>
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+      <c r="C151" t="s">
+        <v>573</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>574</v>
+      </c>
+      <c r="F151" s="24"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" hidden="1">
+      <c r="A152" t="s">
+        <v>503</v>
+      </c>
+      <c r="B152" t="s">
+        <v>567</v>
+      </c>
+      <c r="C152" t="s">
+        <v>566</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F152" s="24"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>506</v>
+      </c>
+      <c r="B153" t="s">
+        <v>507</v>
+      </c>
+      <c r="C153" t="s">
+        <v>508</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E153" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F153" s="24"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" hidden="1">
+      <c r="A154" t="s">
+        <v>509</v>
+      </c>
+      <c r="B154" t="s">
+        <v>561</v>
+      </c>
+      <c r="C154" t="s">
+        <v>560</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F154" s="24"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>512</v>
+      </c>
+      <c r="B155" t="s">
+        <v>513</v>
+      </c>
+      <c r="C155" t="s">
+        <v>514</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F155" s="24"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>515</v>
+      </c>
+      <c r="B156" t="s">
+        <v>516</v>
+      </c>
+      <c r="C156" t="s">
+        <v>517</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E156" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F156" s="24"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" hidden="1">
+      <c r="A157" t="s">
+        <v>518</v>
+      </c>
+      <c r="B157" t="s">
+        <v>562</v>
+      </c>
+      <c r="C157" t="s">
+        <v>554</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F157" s="24"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" hidden="1">
+      <c r="A158" t="s">
+        <v>520</v>
+      </c>
+      <c r="B158" t="s">
+        <v>570</v>
+      </c>
+      <c r="C158" t="s">
+        <v>569</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E158" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F158" s="24"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>523</v>
+      </c>
+      <c r="B159" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" t="s">
+        <v>568</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E159" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F159" s="24"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" hidden="1">
+      <c r="A160" t="s">
+        <v>549</v>
+      </c>
+      <c r="B160" t="s">
+        <v>555</v>
+      </c>
+      <c r="C160" t="s">
+        <v>550</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F160" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" hidden="1">
+      <c r="A161" t="s">
+        <v>529</v>
+      </c>
+      <c r="B161" t="s">
+        <v>119</v>
+      </c>
+      <c r="C161" t="s">
+        <v>530</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F161" s="24"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>531</v>
+      </c>
+      <c r="B162" t="s">
+        <v>532</v>
+      </c>
+      <c r="C162" t="s">
+        <v>533</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F162" s="24"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" hidden="1">
+      <c r="A163" t="s">
+        <v>534</v>
+      </c>
+      <c r="B163" t="s">
+        <v>572</v>
+      </c>
+      <c r="C163" t="s">
+        <v>571</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F163" s="24"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" hidden="1">
+      <c r="A164" t="s">
+        <v>537</v>
+      </c>
+      <c r="B164" t="s">
+        <v>538</v>
+      </c>
+      <c r="C164" t="s">
+        <v>551</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F164" s="24" t="s">
+        <v>563</v>
+      </c>
+      <c r="G164" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" hidden="1">
+      <c r="A165" t="s">
+        <v>540</v>
+      </c>
+      <c r="B165" t="s">
+        <v>564</v>
+      </c>
+      <c r="C165" t="s">
+        <v>559</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="F165" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="G165" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>542</v>
+      </c>
+      <c r="B166" t="s">
+        <v>542</v>
+      </c>
+      <c r="C166" t="s">
+        <v>558</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F166" s="24"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="22" t="s">
+        <v>544</v>
+      </c>
+      <c r="B167" s="22" t="s">
+        <v>545</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="D167" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="F167" s="24"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="E172" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F172" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="D151" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E151" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="E173" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F173" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="C154" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E150:E1048576 E1:E148">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="E1:E171 E174:E1048576 I140 F172">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F173">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7096,7 +8286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -7111,94 +8301,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
       <c r="E1" s="12" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="315" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="195" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="270" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -7221,7 +8411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7236,94 +8426,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="19" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="E1" s="5" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="255">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="165">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="255">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="105">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>461</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>464</v>
       </c>
       <c r="E7" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2720" yWindow="-15380" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="579">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -1786,24 +1786,416 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deleteReplyTemplate/{replyTemplateId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/openAlertMsgDpRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开警示信息描述按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警示信息申请状态，确认待查操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/endOfAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束审方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBeating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核药师工作状态心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/releaseAuditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束正在审核的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置任务的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditPlan/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置的审方方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/batchPending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchRefuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extractIptCheckData</t>
+  </si>
+  <si>
+    <t>抽取住院复核数据</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
+  </si>
+  <si>
+    <t>getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>getIptCheckData</t>
+  </si>
+  <si>
+    <t>住院复核数据列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+  </si>
+  <si>
+    <t>checkIptOrderData</t>
+  </si>
+  <si>
+    <t>住院医嘱复核数据详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
+  </si>
+  <si>
+    <t>getCheckResult</t>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+  </si>
+  <si>
+    <t>saveCheckResult</t>
+  </si>
+  <si>
+    <t>保存复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/saveCheckResult</t>
+  </si>
+  <si>
+    <t>复核项目列表</t>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+  </si>
+  <si>
+    <t>查看处方列表</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckResultList</t>
+  </si>
+  <si>
+    <t>抽取接口</t>
+  </si>
+  <si>
+    <t>抽取调用接口</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckList</t>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+  </si>
+  <si>
+    <t>/deleteProject</t>
+  </si>
+  <si>
+    <t>删除项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+  </si>
+  <si>
+    <t>saveProject</t>
+  </si>
+  <si>
+    <t>保存项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+  </si>
+  <si>
+    <t>/opt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>门诊已复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>/opt/recipeInfo</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
+  </si>
+  <si>
+    <t>saveOperation</t>
+  </si>
+  <si>
+    <t>保存复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/saveOperation</t>
+  </si>
+  <si>
+    <t>getOperation</t>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+  </si>
+  <si>
+    <t>/opt/nextId</t>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+  </si>
+  <si>
+    <t>/opt/previousId</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+  </si>
+  <si>
+    <t>查看项目报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+  </si>
+  <si>
+    <t>/export</t>
+  </si>
+  <si>
+    <t>导出报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门诊已复核数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">1.进入新增复核项目页面，来源选择门/急诊、门诊、急诊，其余复核条件显示正确（日期、药师、抽取方式）
 2.日期：药师审核的日期
 3.药师：显示所有审方药师供选择，支持多选
 4.来源：门/急诊、门诊、急诊、住院
 5.抽取方式：全部抽取、随机抽取两种方式；随机抽取：按百分比和按数量随机抽取；选择百分比，显示百分比输入框；选择指定数量随机，显示数量输入框，提示请输入大于0的整数
-6.抽取：点击抽取后展示符合条件的医嘱，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
+6.抽取：点击抽取后展示符合条件的处方，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.复核进度：当前复核完成的XML数/抽取的XML总数
+    <t>1.复核进度：当前复核完成的XML数/抽取的XML总数
 2.状态：全部、已复核和未复核，默认全部
-3.点击查看或者双击，进入复核详情页（医嘱）
-4.复核详情页（处方）基本信息（住院号、患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表）显示正确
+3.点击查看或者双击，进入复核详情页（处方）
+4.复核详情页（处方）基本信息（患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表）显示正确
 5.查看电子病历、查看检验/检查单、查看手术正确
 6.处方信息正确：包括本次处方和其他合并处方
-7.选中一条待复核的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并医嘱制作展示，</t>
+7.选中一条待复核的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并处方制作展示，不可点击，审核操作记录是否展示？
+8.选择合理/不合理，复核意见最多支持200个字
+9.保存：打上合理/不合理的戳，并自动跳到下一条待复核核的数据；当前全部待复核的完成后，自动跳转到下一条XML记录
+10.返回任务清单：跳转到添加复核项目页面，该条XML的状态从未复核改成已复核：复核进度相应增加一条：状态选择已复核时候，可以搜到该条记录，状态选择未复核时候，搜不到该条记录
+11.操作：查看，该条处方的复核数据都已经打上了合理/不合理的戳，并显示复核意见，复核人员是否可以重新选择是否合理？</t>
+  </si>
+  <si>
+    <r>
+      <t>1.查看非本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取、保存项目按钮，状态可以选择过滤。点击查看时，没有合理保存按钮，可以看到复核记录
+2.查看本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取按钮，有保存项目按钮，状态可以选择过滤。点击查看时，有合理保存按钮，可以看到复核记录，并且可以修改
+3.查看非本人报表：暗色则不可点，亮色跳转到项目报表页，可点导出报表，</t>
     </r>
     <r>
       <rPr>
@@ -1814,7 +2206,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不可点击，审核操作记录是否展示？</t>
+      <t>生成excel下载？</t>
     </r>
     <r>
       <rPr>
@@ -1826,10 +2218,12 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-8.选择合理/不合理，复核意见最多支持200个字
-9.保存：打上合理/不合理的戳，并自动跳到下一条待复核核的数据；当前全部待复核的完成后，自动跳转到下一条XML记录
-10.返回任务清单：跳转到添加复核项目页面，该条XML的状态从未复核改成已复核：复核进度相应增加一条：状态选择已复核时候，可以搜到该条记录，状态选择未复核时候，搜不到该条记录
-11.操作：查看，该条医嘱的复核数据都已经打上了合理/不合理的戳，并</t>
+4.查看本人报表：暗色则不可点，亮色跳转到项目报表页；添加复核项目生成报表，暗色变亮色；
+5.本人项目可以删除，并提示是否删除；非本人项目，删除项目暗色，不可点
+6.复核进度：可以实时变化
+7.页面默认20条数据，按照项目创建时间倒叙，下一页功能正常，跳转功能正常
+8.项目名称搜索功能正常，支持模糊匹配
+9.查看项目报表页，药师、样本数量、</t>
     </r>
     <r>
       <rPr>
@@ -1840,7 +2234,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>显示复核意见，</t>
+      <t>审核合理数量、审核不合理数量</t>
     </r>
     <r>
       <rPr>
@@ -1851,27 +2245,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>复核人员是否可以重新选择是否</t>
+      <t>、合格率是否正确
+10.查看项目报表页，默认20条记录，下一页，跳转功能正常
+11.查看项目报表页，导出报表正常</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合理？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1879,374 +2256,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/deleteReplyTemplate/{replyTemplateId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/openAlertMsgDpRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开警示信息描述按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警示信息申请状态，确认待查操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/endOfAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束审方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBeating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核药师工作状态心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/releaseAuditing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束正在审核的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置任务的审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditPlan/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportDrugMessageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取配置的审方方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/batchPending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchRefuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extractIptCheckData</t>
-  </si>
-  <si>
-    <t>抽取住院复核数据</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
-  </si>
-  <si>
-    <t>getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>住院已复核数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>getIptCheckData</t>
-  </si>
-  <si>
-    <t>住院复核数据列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getIptCheckData</t>
-  </si>
-  <si>
-    <t>checkIptOrderData</t>
-  </si>
-  <si>
-    <t>住院医嘱复核数据详情</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
-  </si>
-  <si>
-    <t>getCheckResult</t>
-  </si>
-  <si>
-    <t>获取一组药的复核结果</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getCheckResult</t>
-  </si>
-  <si>
-    <t>saveCheckResult</t>
-  </si>
-  <si>
-    <t>保存复核结果</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/saveCheckResult</t>
-  </si>
-  <si>
-    <t>复核项目列表</t>
-  </si>
-  <si>
-    <t>获取复核项目列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/checkProjectList</t>
-  </si>
-  <si>
-    <t>查看处方列表</t>
-  </si>
-  <si>
-    <t>获取项目列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckResultList</t>
-  </si>
-  <si>
-    <t>抽取接口</t>
-  </si>
-  <si>
-    <t>抽取调用接口</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckList</t>
-  </si>
-  <si>
-    <t>获取项目条件</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getCheckResultQuery</t>
-  </si>
-  <si>
-    <t>/deleteProject</t>
-  </si>
-  <si>
-    <t>删除项目</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/deleteProject</t>
-  </si>
-  <si>
-    <t>saveProject</t>
-  </si>
-  <si>
-    <t>保存项目</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/saveProject</t>
-  </si>
-  <si>
-    <t>/opt/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>门诊已复核数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>/opt/recipeInfo</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
-  </si>
-  <si>
-    <t>saveOperation</t>
-  </si>
-  <si>
-    <t>保存复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/saveOperation</t>
-  </si>
-  <si>
-    <t>getOperation</t>
-  </si>
-  <si>
-    <t>查询复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-  </si>
-  <si>
-    <t>/opt/nextId</t>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-  </si>
-  <si>
-    <t>/opt/previousId</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-  </si>
-  <si>
-    <t>查看项目报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-  </si>
-  <si>
-    <t>/export</t>
-  </si>
-  <si>
-    <t>导出报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getCheckResultQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/checkProjectList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取复核项目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取项目条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getCheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取一组药的复核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/saveProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/deleteProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询复核操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2516,6 +2526,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2533,13 +2550,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -2603,9 +2613,24 @@
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2627,31 +2652,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2659,35 +2659,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D167" totalsRowShown="0">
-  <autoFilter ref="A1:D167">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="GET"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D167"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="8"/>
+    <tableColumn id="4" name="Method" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G167" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="E1:G167">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G167" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E1:G167"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Case" dataDxfId="7"/>
-    <tableColumn id="2" name="列1" dataDxfId="6"/>
+    <tableColumn id="1" name="Case" dataDxfId="2"/>
+    <tableColumn id="2" name="列1" dataDxfId="1"/>
     <tableColumn id="3" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4906,13 +4894,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" t="s">
         <v>491</v>
-      </c>
-      <c r="B148" t="s">
-        <v>492</v>
-      </c>
-      <c r="C148" t="s">
-        <v>493</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
@@ -4920,13 +4908,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>492</v>
+      </c>
+      <c r="B149" t="s">
+        <v>493</v>
+      </c>
+      <c r="C149" t="s">
         <v>494</v>
-      </c>
-      <c r="B149" t="s">
-        <v>495</v>
-      </c>
-      <c r="C149" t="s">
-        <v>496</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -4934,13 +4922,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
+        <v>495</v>
+      </c>
+      <c r="B150" t="s">
+        <v>496</v>
+      </c>
+      <c r="C150" t="s">
         <v>497</v>
-      </c>
-      <c r="B150" t="s">
-        <v>498</v>
-      </c>
-      <c r="C150" t="s">
-        <v>499</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -4948,13 +4936,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>498</v>
+      </c>
+      <c r="B151" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" t="s">
         <v>500</v>
-      </c>
-      <c r="B151" t="s">
-        <v>501</v>
-      </c>
-      <c r="C151" t="s">
-        <v>502</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -4962,13 +4950,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
+        <v>501</v>
+      </c>
+      <c r="B152" t="s">
+        <v>502</v>
+      </c>
+      <c r="C152" t="s">
         <v>503</v>
-      </c>
-      <c r="B152" t="s">
-        <v>504</v>
-      </c>
-      <c r="C152" t="s">
-        <v>505</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -4976,13 +4964,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
+        <v>504</v>
+      </c>
+      <c r="B153" t="s">
+        <v>505</v>
+      </c>
+      <c r="C153" t="s">
         <v>506</v>
-      </c>
-      <c r="B153" t="s">
-        <v>507</v>
-      </c>
-      <c r="C153" t="s">
-        <v>508</v>
       </c>
       <c r="D153" t="s">
         <v>14</v>
@@ -4990,13 +4978,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
+        <v>507</v>
+      </c>
+      <c r="B154" t="s">
+        <v>508</v>
+      </c>
+      <c r="C154" t="s">
         <v>509</v>
-      </c>
-      <c r="B154" t="s">
-        <v>510</v>
-      </c>
-      <c r="C154" t="s">
-        <v>511</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5004,13 +4992,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
+        <v>510</v>
+      </c>
+      <c r="B155" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" t="s">
         <v>512</v>
-      </c>
-      <c r="B155" t="s">
-        <v>513</v>
-      </c>
-      <c r="C155" t="s">
-        <v>514</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -5018,13 +5006,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
+        <v>513</v>
+      </c>
+      <c r="B156" t="s">
+        <v>514</v>
+      </c>
+      <c r="C156" t="s">
         <v>515</v>
-      </c>
-      <c r="B156" t="s">
-        <v>516</v>
-      </c>
-      <c r="C156" t="s">
-        <v>517</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -5032,13 +5020,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B157" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C157" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5046,13 +5034,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>518</v>
+      </c>
+      <c r="B158" t="s">
+        <v>519</v>
+      </c>
+      <c r="C158" t="s">
         <v>520</v>
-      </c>
-      <c r="B158" t="s">
-        <v>521</v>
-      </c>
-      <c r="C158" t="s">
-        <v>522</v>
       </c>
       <c r="D158" t="s">
         <v>79</v>
@@ -5060,13 +5048,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>521</v>
+      </c>
+      <c r="B159" t="s">
+        <v>522</v>
+      </c>
+      <c r="C159" t="s">
         <v>523</v>
-      </c>
-      <c r="B159" t="s">
-        <v>524</v>
-      </c>
-      <c r="C159" t="s">
-        <v>525</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -5074,13 +5062,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
+        <v>524</v>
+      </c>
+      <c r="B160" t="s">
+        <v>525</v>
+      </c>
+      <c r="C160" t="s">
         <v>526</v>
-      </c>
-      <c r="B160" t="s">
-        <v>527</v>
-      </c>
-      <c r="C160" t="s">
-        <v>528</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5088,13 +5076,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5102,13 +5090,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
+        <v>529</v>
+      </c>
+      <c r="B162" t="s">
+        <v>530</v>
+      </c>
+      <c r="C162" t="s">
         <v>531</v>
-      </c>
-      <c r="B162" t="s">
-        <v>532</v>
-      </c>
-      <c r="C162" t="s">
-        <v>533</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -5116,13 +5104,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
+        <v>532</v>
+      </c>
+      <c r="B163" t="s">
+        <v>533</v>
+      </c>
+      <c r="C163" t="s">
         <v>534</v>
-      </c>
-      <c r="B163" t="s">
-        <v>535</v>
-      </c>
-      <c r="C163" t="s">
-        <v>536</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5130,13 +5118,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
+        <v>535</v>
+      </c>
+      <c r="B164" t="s">
+        <v>536</v>
+      </c>
+      <c r="C164" t="s">
         <v>537</v>
-      </c>
-      <c r="B164" t="s">
-        <v>538</v>
-      </c>
-      <c r="C164" t="s">
-        <v>539</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5144,13 +5132,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B165" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C165" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -5158,13 +5146,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B166" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C166" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5172,13 +5160,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
+        <v>542</v>
+      </c>
+      <c r="B167" t="s">
+        <v>543</v>
+      </c>
+      <c r="C167" t="s">
         <v>544</v>
-      </c>
-      <c r="B167" t="s">
-        <v>545</v>
-      </c>
-      <c r="C167" t="s">
-        <v>546</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5200,8 +5188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D172" sqref="D172"/>
+    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5233,15 +5221,15 @@
         <v>378</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C2" t="s">
         <v>440</v>
@@ -5255,15 +5243,15 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -5274,7 +5262,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5293,7 +5281,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>311</v>
       </c>
@@ -5306,7 +5294,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>312</v>
       </c>
@@ -5321,7 +5309,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
@@ -5332,7 +5320,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5351,7 +5339,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5370,7 +5358,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
         <v>332</v>
       </c>
@@ -5383,7 +5371,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -5396,15 +5384,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -5415,15 +5403,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -5434,7 +5422,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5453,15 +5441,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -5472,15 +5460,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -5491,7 +5479,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -5510,7 +5498,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -5537,7 +5525,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -5556,7 +5544,7 @@
         <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -5575,7 +5563,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -5643,26 +5631,26 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5681,7 +5669,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -5700,7 +5688,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5719,7 +5707,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5738,7 +5726,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5757,7 +5745,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5765,7 +5753,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -5776,7 +5764,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5795,7 +5783,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5822,7 +5810,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -5833,7 +5821,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -5852,7 +5840,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5871,7 +5859,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5890,7 +5878,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5909,7 +5897,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5928,7 +5916,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -5947,7 +5935,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -5966,7 +5954,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -5985,7 +5973,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -6004,7 +5992,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -6023,7 +6011,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6042,7 +6030,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>374</v>
       </c>
@@ -6063,7 +6051,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="C47" t="s">
         <v>316</v>
       </c>
@@ -6076,7 +6064,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="C48" t="s">
         <v>317</v>
       </c>
@@ -6089,7 +6077,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="C49" t="s">
         <v>336</v>
       </c>
@@ -6102,7 +6090,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="C50" t="s">
         <v>337</v>
       </c>
@@ -6115,7 +6103,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="C51" t="s">
         <v>338</v>
       </c>
@@ -6128,7 +6116,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -6147,7 +6135,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
         <v>340</v>
       </c>
@@ -6160,7 +6148,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
         <v>342</v>
       </c>
@@ -6173,7 +6161,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="C55" t="s">
         <v>344</v>
       </c>
@@ -6186,7 +6174,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="C56" t="s">
         <v>345</v>
       </c>
@@ -6199,7 +6187,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="C57" t="s">
         <v>347</v>
       </c>
@@ -6212,7 +6200,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="C58" t="s">
         <v>348</v>
       </c>
@@ -6225,7 +6213,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="C59" t="s">
         <v>349</v>
       </c>
@@ -6238,7 +6226,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="C60" t="s">
         <v>350</v>
       </c>
@@ -6251,7 +6239,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
         <v>351</v>
       </c>
@@ -6264,7 +6252,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
         <v>352</v>
       </c>
@@ -6277,7 +6265,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="C63" t="s">
         <v>353</v>
       </c>
@@ -6290,7 +6278,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -6309,7 +6297,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="C65" t="s">
         <v>375</v>
       </c>
@@ -6322,7 +6310,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="C66" t="s">
         <v>319</v>
       </c>
@@ -6335,7 +6323,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -6354,7 +6342,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -6373,12 +6361,12 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -6387,12 +6375,12 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>155</v>
       </c>
@@ -6411,7 +6399,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -6430,7 +6418,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -6449,7 +6437,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -6468,7 +6456,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>167</v>
       </c>
@@ -6487,7 +6475,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>170</v>
       </c>
@@ -6506,7 +6494,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>173</v>
       </c>
@@ -6525,7 +6513,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>176</v>
       </c>
@@ -6544,7 +6532,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -6563,7 +6551,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>182</v>
       </c>
@@ -6582,7 +6570,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>185</v>
       </c>
@@ -6601,7 +6589,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -6620,7 +6608,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -6639,7 +6627,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -6658,7 +6646,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -6677,7 +6665,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>200</v>
       </c>
@@ -6696,7 +6684,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>103</v>
       </c>
@@ -6717,7 +6705,7 @@
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>204</v>
       </c>
@@ -6738,7 +6726,7 @@
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6816,7 +6804,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" hidden="1">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>215</v>
       </c>
@@ -6835,7 +6823,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -6854,7 +6842,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -6873,7 +6861,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -6892,7 +6880,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -6911,7 +6899,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -6930,7 +6918,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -6949,7 +6937,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -6968,7 +6956,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6987,7 +6975,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -7006,7 +6994,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -7025,7 +7013,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -7044,7 +7032,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -7063,7 +7051,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -7082,7 +7070,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -7101,7 +7089,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -7120,7 +7108,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -7139,7 +7127,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -7158,7 +7146,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -7177,7 +7165,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -7234,7 +7222,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -7272,7 +7260,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="B116" t="s">
         <v>245</v>
       </c>
@@ -7288,7 +7276,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="B117" t="s">
         <v>247</v>
       </c>
@@ -7317,7 +7305,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -7336,7 +7324,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="B120" t="s">
         <v>252</v>
       </c>
@@ -7371,7 +7359,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="C122" t="s">
         <v>395</v>
       </c>
@@ -7384,7 +7372,7 @@
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -7403,7 +7391,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -7422,7 +7410,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -7443,7 +7431,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -7462,7 +7450,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -7481,7 +7469,7 @@
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -7500,7 +7488,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -7519,7 +7507,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -7540,7 +7528,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -7559,7 +7547,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -7578,7 +7566,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -7597,7 +7585,7 @@
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="C134" t="s">
         <v>270</v>
       </c>
@@ -7695,7 +7683,7 @@
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="C140" t="s">
         <v>389</v>
       </c>
@@ -7712,10 +7700,10 @@
       </c>
       <c r="I140" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>282</v>
       </c>
@@ -7734,7 +7722,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -7772,15 +7760,15 @@
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C144" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -7791,7 +7779,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -7810,7 +7798,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -7829,7 +7817,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" hidden="1">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -7850,351 +7838,351 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B148" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" t="s">
         <v>491</v>
-      </c>
-      <c r="B148" t="s">
-        <v>492</v>
-      </c>
-      <c r="C148" t="s">
-        <v>493</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="F148" s="24"/>
+      <c r="E148" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F148" s="18"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" hidden="1">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B149" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C149" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F149" s="24"/>
+      <c r="E149" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F149" s="18"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B150" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C150" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E150" s="24" t="s">
-        <v>548</v>
-      </c>
-      <c r="F150" s="24"/>
+      <c r="E150" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="F150" s="18"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" hidden="1">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B151" t="s">
+        <v>499</v>
+      </c>
+      <c r="C151" t="s">
+        <v>571</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="18" t="s">
+        <v>572</v>
+      </c>
+      <c r="F151" s="18"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
         <v>501</v>
       </c>
-      <c r="C151" t="s">
-        <v>573</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>574</v>
-      </c>
-      <c r="F151" s="24"/>
-      <c r="G151" s="1"/>
-    </row>
-    <row r="152" spans="1:7" hidden="1">
-      <c r="A152" t="s">
-        <v>503</v>
-      </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C152" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E152" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F152" s="24"/>
+      <c r="E152" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F152" s="18"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
+        <v>504</v>
+      </c>
+      <c r="B153" t="s">
+        <v>505</v>
+      </c>
+      <c r="C153" t="s">
         <v>506</v>
-      </c>
-      <c r="B153" t="s">
-        <v>507</v>
-      </c>
-      <c r="C153" t="s">
-        <v>508</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E153" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F153" s="24"/>
+      <c r="E153" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F153" s="18"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B154" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C154" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E154" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F154" s="24"/>
+      <c r="E154" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F154" s="18"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
+        <v>510</v>
+      </c>
+      <c r="B155" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" t="s">
         <v>512</v>
       </c>
-      <c r="B155" t="s">
-        <v>513</v>
-      </c>
-      <c r="C155" t="s">
-        <v>514</v>
-      </c>
       <c r="D155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F155" s="24"/>
+        <v>578</v>
+      </c>
+      <c r="E155" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F155" s="18"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
+        <v>513</v>
+      </c>
+      <c r="B156" t="s">
+        <v>514</v>
+      </c>
+      <c r="C156" t="s">
         <v>515</v>
-      </c>
-      <c r="B156" t="s">
-        <v>516</v>
-      </c>
-      <c r="C156" t="s">
-        <v>517</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F156" s="24"/>
+      <c r="E156" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F156" s="18"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
+        <v>516</v>
+      </c>
+      <c r="B157" t="s">
+        <v>560</v>
+      </c>
+      <c r="C157" t="s">
+        <v>552</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F157" s="18"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
         <v>518</v>
       </c>
-      <c r="B157" t="s">
-        <v>562</v>
-      </c>
-      <c r="C157" t="s">
-        <v>554</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F157" s="24"/>
-      <c r="G157" s="1"/>
-    </row>
-    <row r="158" spans="1:7" hidden="1">
-      <c r="A158" t="s">
-        <v>520</v>
-      </c>
       <c r="B158" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C158" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E158" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F158" s="24"/>
+      <c r="E158" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F158" s="18"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B159" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C159" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E159" s="24" t="s">
+      <c r="E159" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F159" s="18"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
         <v>547</v>
       </c>
-      <c r="F159" s="24"/>
-      <c r="G159" s="1"/>
-    </row>
-    <row r="160" spans="1:7" hidden="1">
-      <c r="A160" t="s">
-        <v>549</v>
-      </c>
       <c r="B160" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C160" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E160" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F160" s="24" t="s">
-        <v>548</v>
+      <c r="E160" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F160" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F161" s="24"/>
+      <c r="E161" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F161" s="18"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
+        <v>529</v>
+      </c>
+      <c r="B162" t="s">
+        <v>530</v>
+      </c>
+      <c r="C162" t="s">
         <v>531</v>
-      </c>
-      <c r="B162" t="s">
-        <v>532</v>
-      </c>
-      <c r="C162" t="s">
-        <v>533</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F162" s="24"/>
+      <c r="E162" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="F162" s="18"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B163" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C163" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E163" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F163" s="24"/>
+      <c r="E163" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F163" s="18"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B164" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C164" t="s">
+        <v>549</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F164" s="24" t="s">
-        <v>563</v>
+      <c r="F164" s="18" t="s">
+        <v>561</v>
       </c>
       <c r="G164" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B165" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C165" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E165" s="24" t="s">
-        <v>553</v>
-      </c>
-      <c r="F165" s="24" t="s">
-        <v>548</v>
+      <c r="E165" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="F165" s="18" t="s">
+        <v>546</v>
       </c>
       <c r="G165" s="1">
         <v>500</v>
@@ -8202,40 +8190,40 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
+        <v>540</v>
+      </c>
+      <c r="B166" t="s">
+        <v>540</v>
+      </c>
+      <c r="C166" t="s">
+        <v>556</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="18" t="s">
+        <v>545</v>
+      </c>
+      <c r="F166" s="18"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="B166" t="s">
-        <v>542</v>
-      </c>
-      <c r="C166" t="s">
-        <v>558</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F166" s="24"/>
-      <c r="G166" s="1"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="22" t="s">
-        <v>544</v>
-      </c>
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="C167" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="D167" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="24" t="s">
-        <v>547</v>
-      </c>
-      <c r="F167" s="24"/>
+      <c r="F167" s="18"/>
       <c r="G167" s="1"/>
     </row>
     <row r="172" spans="1:7">
@@ -8244,7 +8232,7 @@
       </c>
       <c r="F172" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -8253,18 +8241,18 @@
       </c>
       <c r="F173" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E171 E174:E1048576 I140 F172">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8286,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8300,12 +8288,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="12" t="s">
         <v>444</v>
       </c>
@@ -8324,7 +8312,7 @@
         <v>447</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
@@ -8411,8 +8399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8425,12 +8413,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="5" t="s">
         <v>444</v>
       </c>
@@ -8449,7 +8437,7 @@
         <v>447</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
@@ -8461,7 +8449,7 @@
         <v>446</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>464</v>
+        <v>574</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -8474,7 +8462,7 @@
         <v>462</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>465</v>
+        <v>575</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -8500,7 +8488,7 @@
         <v>457</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>459</v>
+        <v>576</v>
       </c>
       <c r="E6" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="-15380" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="605">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -981,10 +981,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/nextAuditTaskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/analysisType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1022,10 +1018,6 @@
   </si>
   <si>
     <t>/api/v1/workStatistics/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/addReplyTemplate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1858,10 +1850,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/exportDrugMessageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取配置的审方方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1878,14 +1866,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/auditBatchRefuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>extractIptCheckData</t>
   </si>
   <si>
@@ -1991,181 +1971,132 @@
     <t>/api/v1/analysis/saveProject</t>
   </si>
   <si>
+    <t>门诊已复核数</t>
+  </si>
+  <si>
+    <t>/opt/recipeInfo</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
+  </si>
+  <si>
+    <t>saveOperation</t>
+  </si>
+  <si>
+    <t>保存复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/saveOperation</t>
+  </si>
+  <si>
+    <t>getOperation</t>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+  </si>
+  <si>
+    <t>/opt/nextId</t>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+  </si>
+  <si>
+    <t>/opt/previousId</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+  </si>
+  <si>
+    <t>查看项目报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+  </si>
+  <si>
+    <t>/export</t>
+  </si>
+  <si>
+    <t>导出报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+  </si>
+  <si>
     <t>/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>门诊已复核数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>/opt/recipeInfo</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
-  </si>
-  <si>
-    <t>saveOperation</t>
-  </si>
-  <si>
-    <t>保存复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/saveOperation</t>
-  </si>
-  <si>
-    <t>getOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查询复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-  </si>
-  <si>
-    <t>/opt/nextId</t>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-  </si>
-  <si>
-    <t>/opt/previousId</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-  </si>
-  <si>
-    <t>查看项目报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-  </si>
-  <si>
-    <t>/export</t>
-  </si>
-  <si>
-    <t>导出报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getCheckResultQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门诊已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/checkProjectList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取复核项目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取项目条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getCheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取一组药的复核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/saveProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/deleteProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询复核操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getIptCheckData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2257,6 +2188,175 @@
   </si>
   <si>
     <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看项目报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取调用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/saveCheckResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存复核结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院复核数据列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取住院复核数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchRefuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量打回处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewResultList</t>
+  </si>
+  <si>
+    <t>查询医嘱个人复合结果详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+  </si>
+  <si>
+    <t>createProjectReport</t>
+  </si>
+  <si>
+    <t>生成项目报表</t>
+  </si>
+  <si>
+    <t>/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>生成项目报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/excuteReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/createProjectReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/reviewResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人复合结果详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/excuteReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询医嘱个人复合结果详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/addReplyTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/nextAuditTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找下一张审核信息的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2416,8 +2516,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2552,7 +2674,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="81">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2582,6 +2704,17 @@
     <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2611,27 +2744,20 @@
     <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2652,31 +2778,55 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D167" totalsRowShown="0">
-  <autoFilter ref="A1:D167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D171" totalsRowShown="0">
+  <autoFilter ref="A1:D171"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="5"/>
+    <tableColumn id="4" name="Method" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G167" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="E1:G167"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G171" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="E1:G171">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="N"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="Case" dataDxfId="2"/>
-    <tableColumn id="2" name="列1" dataDxfId="1"/>
-    <tableColumn id="3" name="列2" dataDxfId="0"/>
+    <tableColumn id="1" name="Case" dataDxfId="4"/>
+    <tableColumn id="2" name="列1" dataDxfId="3"/>
+    <tableColumn id="3" name="列2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3004,10 +3154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148:D167"/>
+    <sheetView topLeftCell="A144" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4894,27 +5044,27 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>489</v>
+        <v>582</v>
       </c>
       <c r="B148" t="s">
-        <v>490</v>
+        <v>593</v>
       </c>
       <c r="C148" t="s">
-        <v>491</v>
+        <v>592</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>492</v>
+        <v>582</v>
       </c>
       <c r="B149" t="s">
-        <v>493</v>
+        <v>583</v>
       </c>
       <c r="C149" t="s">
-        <v>494</v>
+        <v>594</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -4922,13 +5072,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B150" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C150" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -4936,13 +5086,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C151" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -4950,13 +5100,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B152" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C152" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -4964,27 +5114,27 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B153" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C153" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="D153" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="B154" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C154" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -4992,13 +5142,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B155" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C155" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -5006,27 +5156,27 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="B156" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="C156" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="D156" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="B157" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C157" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5034,27 +5184,27 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B158" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C158" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D158" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="B159" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="C159" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -5062,13 +5212,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="B160" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C160" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5076,27 +5226,27 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B161" t="s">
-        <v>119</v>
+        <v>514</v>
       </c>
       <c r="C161" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="B162" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="C162" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -5104,13 +5254,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="B163" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C163" t="s">
-        <v>534</v>
+        <v>588</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5118,13 +5268,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="B164" t="s">
-        <v>536</v>
+        <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5132,27 +5282,27 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B165" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="C165" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B166" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C166" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5160,15 +5310,71 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B167" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C167" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D167" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>531</v>
+      </c>
+      <c r="B168" t="s">
+        <v>529</v>
+      </c>
+      <c r="C168" t="s">
+        <v>532</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>533</v>
+      </c>
+      <c r="B169" t="s">
+        <v>533</v>
+      </c>
+      <c r="C169" t="s">
+        <v>534</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>535</v>
+      </c>
+      <c r="B170" t="s">
+        <v>536</v>
+      </c>
+      <c r="C170" t="s">
+        <v>537</v>
+      </c>
+      <c r="D170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>586</v>
+      </c>
+      <c r="B171" t="s">
+        <v>589</v>
+      </c>
+      <c r="C171" t="s">
+        <v>590</v>
+      </c>
+      <c r="D171" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5186,10 +5392,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B148" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5218,21 +5424,21 @@
         <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -5243,15 +5449,15 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -5262,7 +5468,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5281,7 +5487,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1">
       <c r="C5" t="s">
         <v>311</v>
       </c>
@@ -5294,7 +5500,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1">
       <c r="C6" t="s">
         <v>312</v>
       </c>
@@ -5309,18 +5515,18 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>482</v>
+        <v>601</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>310</v>
+        <v>602</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5328,7 +5534,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -5339,7 +5545,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5347,20 +5553,20 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1">
       <c r="C10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -5371,7 +5577,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -5384,15 +5590,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -5403,15 +5609,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -5422,7 +5628,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5430,7 +5636,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -5441,15 +5647,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -5460,15 +5666,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -5479,15 +5685,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C17" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -5498,15 +5704,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -5517,7 +5723,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5525,37 +5731,37 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>581</v>
       </c>
       <c r="C20" t="s">
-        <v>487</v>
+        <v>580</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5563,13 +5769,13 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5617,40 +5823,40 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>603</v>
       </c>
       <c r="C24" t="s">
-        <v>315</v>
+        <v>600</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>310</v>
+        <v>604</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" hidden="1">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5669,7 +5875,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -5688,7 +5894,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5707,7 +5913,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5726,7 +5932,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5745,7 +5951,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5753,7 +5959,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -5764,7 +5970,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5783,7 +5989,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5791,7 +5997,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -5810,7 +6016,7 @@
         <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -5821,7 +6027,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -5829,7 +6035,7 @@
         <v>89</v>
       </c>
       <c r="C35" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -5840,7 +6046,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5848,7 +6054,7 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -5859,7 +6065,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -5867,7 +6073,7 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -5878,7 +6084,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5886,7 +6092,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -5897,7 +6103,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -5905,7 +6111,7 @@
         <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -5916,7 +6122,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -5924,7 +6130,7 @@
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -5935,7 +6141,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -5943,7 +6149,7 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -5954,7 +6160,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -5962,18 +6168,18 @@
         <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -5981,7 +6187,7 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -5992,7 +6198,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -6000,18 +6206,18 @@
         <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6019,7 +6225,7 @@
         <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -6030,15 +6236,15 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -6047,13 +6253,13 @@
         <v>309</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" hidden="1">
       <c r="C47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
@@ -6064,9 +6270,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1">
       <c r="C48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
@@ -6077,9 +6283,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1">
       <c r="C49" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
@@ -6090,9 +6296,9 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1">
       <c r="C50" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -6103,9 +6309,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" hidden="1">
       <c r="C51" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -6116,7 +6322,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -6124,7 +6330,7 @@
         <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -6135,35 +6341,35 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" hidden="1">
       <c r="C53" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" hidden="1">
       <c r="C54" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" hidden="1">
       <c r="C55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -6174,22 +6380,22 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1">
       <c r="C56" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1">
       <c r="C57" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -6200,9 +6406,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" hidden="1">
       <c r="C58" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -6213,9 +6419,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" hidden="1">
       <c r="C59" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -6226,9 +6432,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1">
       <c r="C60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -6239,9 +6445,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" hidden="1">
       <c r="C61" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -6252,9 +6458,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1">
       <c r="C62" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
@@ -6265,9 +6471,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1">
       <c r="C63" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -6278,7 +6484,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -6286,7 +6492,7 @@
         <v>144</v>
       </c>
       <c r="C64" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>11</v>
@@ -6297,22 +6503,22 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1">
       <c r="C65" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1">
       <c r="C66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>11</v>
@@ -6323,7 +6529,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -6331,7 +6537,7 @@
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
@@ -6342,7 +6548,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -6350,7 +6556,7 @@
         <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
@@ -6361,12 +6567,12 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -6375,20 +6581,20 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1">
       <c r="A70" t="s">
         <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C70" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
@@ -6399,15 +6605,15 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -6418,7 +6624,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -6426,26 +6632,26 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" hidden="1">
       <c r="A73" t="s">
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
@@ -6456,15 +6662,15 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" hidden="1">
       <c r="A74" t="s">
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C74" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
@@ -6475,15 +6681,15 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" hidden="1">
       <c r="A75" t="s">
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C75" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
@@ -6494,15 +6700,15 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" hidden="1">
       <c r="A76" t="s">
         <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C76" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
@@ -6513,15 +6719,15 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1">
       <c r="A77" t="s">
         <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C77" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
@@ -6532,34 +6738,34 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1">
       <c r="A78" t="s">
         <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C78" t="s">
+        <v>411</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1">
       <c r="A79" t="s">
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -6570,15 +6776,15 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1">
       <c r="A80" t="s">
         <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C80" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -6589,15 +6795,15 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" t="s">
         <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C81" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -6608,15 +6814,15 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" t="s">
         <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
@@ -6627,15 +6833,15 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" t="s">
         <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C83" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
@@ -6646,15 +6852,15 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
         <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C84" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
@@ -6665,34 +6871,34 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
         <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C85" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" t="s">
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C86" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
@@ -6701,40 +6907,40 @@
         <v>309</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1">
       <c r="A87" t="s">
         <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" t="s">
         <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C88" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
@@ -6753,7 +6959,7 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
@@ -6762,7 +6968,7 @@
         <v>310</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -6804,15 +7010,15 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
         <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C92" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>11</v>
@@ -6823,7 +7029,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -6831,7 +7037,7 @@
         <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
@@ -6842,7 +7048,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -6861,7 +7067,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -6880,7 +7086,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" hidden="1">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -6899,7 +7105,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -6918,7 +7124,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -6937,7 +7143,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -6956,7 +7162,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -6975,7 +7181,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -6994,7 +7200,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -7013,7 +7219,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -7032,7 +7238,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -7051,7 +7257,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -7070,7 +7276,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" hidden="1">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -7089,7 +7295,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -7108,7 +7314,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -7127,7 +7333,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -7146,7 +7352,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -7165,7 +7371,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -7173,7 +7379,7 @@
         <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>11</v>
@@ -7211,7 +7417,7 @@
         <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>14</v>
@@ -7222,7 +7428,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -7230,7 +7436,7 @@
         <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>11</v>
@@ -7249,7 +7455,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -7260,7 +7466,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" hidden="1">
       <c r="B116" t="s">
         <v>245</v>
       </c>
@@ -7276,12 +7482,12 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1">
       <c r="B117" t="s">
         <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
@@ -7305,7 +7511,7 @@
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -7324,7 +7530,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" hidden="1">
       <c r="B120" t="s">
         <v>252</v>
       </c>
@@ -7348,7 +7554,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -7359,20 +7565,20 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" hidden="1">
       <c r="C122" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -7380,7 +7586,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
@@ -7391,7 +7597,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -7399,7 +7605,7 @@
         <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
@@ -7410,7 +7616,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -7418,7 +7624,7 @@
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
@@ -7427,11 +7633,11 @@
         <v>309</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -7439,18 +7645,18 @@
         <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -7458,18 +7664,18 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -7477,7 +7683,7 @@
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
@@ -7488,7 +7694,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -7496,7 +7702,7 @@
         <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -7507,7 +7713,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -7515,7 +7721,7 @@
         <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -7524,11 +7730,11 @@
         <v>309</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -7536,7 +7742,7 @@
         <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
@@ -7547,7 +7753,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -7555,7 +7761,7 @@
         <v>110</v>
       </c>
       <c r="C132" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
@@ -7566,7 +7772,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -7574,18 +7780,18 @@
         <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="C134" t="s">
         <v>270</v>
       </c>
@@ -7670,7 +7876,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="C139" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -7679,13 +7885,13 @@
         <v>310</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="C140" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
@@ -7696,22 +7902,22 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I140" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" t="s">
         <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C141" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
@@ -7722,7 +7928,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -7730,7 +7936,7 @@
         <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -7749,26 +7955,26 @@
         <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>326</v>
+        <v>598</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>310</v>
+        <v>599</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C144" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -7779,7 +7985,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -7787,7 +7993,7 @@
         <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -7798,7 +8004,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -7806,7 +8012,7 @@
         <v>298</v>
       </c>
       <c r="C146" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
@@ -7817,7 +8023,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -7825,7 +8031,7 @@
         <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
@@ -7836,423 +8042,489 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" hidden="1">
       <c r="A148" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B148" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="C148" t="s">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>546</v>
+        <v>576</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1">
       <c r="A149" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B149" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C149" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" hidden="1">
       <c r="A150" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B150" t="s">
-        <v>496</v>
+        <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E150" s="18" t="s">
-        <v>546</v>
+        <v>309</v>
       </c>
       <c r="F150" s="18"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1">
       <c r="A151" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B151" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C151" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="F151" s="18"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1">
       <c r="A152" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B152" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="C152" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1">
       <c r="A153" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B153" t="s">
-        <v>505</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F153" s="18"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" hidden="1">
       <c r="A154" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B154" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="C154" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1">
       <c r="A155" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B155" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C155" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1">
       <c r="A156" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B156" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="C156" t="s">
-        <v>515</v>
+        <v>565</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1">
       <c r="A157" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B157" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="C157" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" hidden="1">
       <c r="A158" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B158" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="C158" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1">
       <c r="A159" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B159" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C159" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1">
       <c r="A160" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B160" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C160" t="s">
-        <v>548</v>
+        <v>595</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="F160" s="18" t="s">
-        <v>546</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="F160" s="18"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1">
       <c r="A161" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>11</v>
+        <v>561</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1">
       <c r="A162" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="B162" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="C162" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1">
       <c r="A163" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B163" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="C163" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1">
       <c r="A164" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="B164" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="C164" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="G164" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>540</v>
+      </c>
+      <c r="F164" s="18"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" hidden="1">
       <c r="A165" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B165" t="s">
+        <v>545</v>
+      </c>
+      <c r="C165" t="s">
+        <v>578</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>540</v>
+      </c>
+      <c r="F165" s="18"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" hidden="1">
+      <c r="A166" t="s">
+        <v>533</v>
+      </c>
+      <c r="B166" t="s">
+        <v>563</v>
+      </c>
+      <c r="C166" t="s">
         <v>562</v>
       </c>
-      <c r="C165" t="s">
-        <v>557</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="F165" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="G165" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
-        <v>540</v>
-      </c>
-      <c r="B166" t="s">
-        <v>540</v>
-      </c>
-      <c r="C166" t="s">
-        <v>556</v>
-      </c>
       <c r="D166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1">
       <c r="A167" s="16" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="172" spans="1:7">
-      <c r="E172" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F172" s="1">
+    <row r="168" spans="1:7" hidden="1">
+      <c r="A168" t="s">
+        <v>582</v>
+      </c>
+      <c r="B168" t="s">
+        <v>593</v>
+      </c>
+      <c r="C168" t="s">
+        <v>592</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="F168" s="18"/>
+      <c r="G168" s="18"/>
+    </row>
+    <row r="169" spans="1:7" hidden="1">
+      <c r="A169" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="D169" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="F169" s="18"/>
+      <c r="G169" s="18"/>
+    </row>
+    <row r="170" spans="1:7" hidden="1">
+      <c r="A170" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B170" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="D170" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="F170" s="18"/>
+      <c r="G170" s="18"/>
+    </row>
+    <row r="171" spans="1:7" hidden="1">
+      <c r="A171" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+    </row>
+    <row r="177" spans="5:6">
+      <c r="E177" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F177" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="E173" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6">
+      <c r="E178" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F178" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E171 E174:E1048576 I140 F172">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="E1:E171 E174:E176 I140 F177 E179:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F173">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+  <conditionalFormatting sqref="F178">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8289,94 +8561,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="E1" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>443</v>
-      </c>
       <c r="D2" s="14" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="315" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>453</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="195" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="270" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>457</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>459</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -8414,94 +8686,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
       <c r="E1" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="255">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="165">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="255">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="105">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>460</v>
-      </c>
       <c r="D7" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E7" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-1180" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="611">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -1009,71 +1009,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>/api/v1/workStatistics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/workStatistics/export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/waitAuditIptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/iptMsgPatientList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/msgOptRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/waitAuditIptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/auditSingle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/currentUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deptTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childrenDept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deptList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/doctorInZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childDrugCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/productList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childDrugProperty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugPropertyTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/drugPropertyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/childIcd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/icd10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/payTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/zoneList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditWorking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/msg/{messageId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditPlanSetting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeSpecialExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optElectronicMedical/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeElectronicMedical/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeOperationList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeImageList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeSpecialExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/auditResultList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeAllergyList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/engineMsgList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/recipeInfo/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/export/{taskId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/workStatistics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/workStatistics/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getVitalSignStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/waitAuditIptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/iptMsgPatientList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/msgOptRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/waitAuditIptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/auditSingle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/currentUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/deptTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childrenDept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/deptList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/doctorInZone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childDrugCategory</t>
+    <t>列1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/recipeInfo/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeExamList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optOperationList/{optRecipeId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/optRecipeImageList/{optRecipeId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1081,174 +1237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/drugCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/drugList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/productList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childDrugProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/drugPropertyTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/drugPropertyList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/childIcd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/icd10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/payTypeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/zoneList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditWorking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/msg/{messageId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditPlanSetting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeElectronicMedical/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeSpecialExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/auditResultList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeAllergyList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/engineMsgList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/export/{taskId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/recipeInfo/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeExamList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optOperationList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/optRecipeImageList/{optRecipeId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/opt/drugAuditRelated/{optRecipeId}/{zoneId}/{productId}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1265,10 +1253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/auditresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/resultReceive</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,10 +1270,6 @@
   </si>
   <si>
     <t>/api/v1/iptWardList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/medicationinfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2235,128 +2215,172 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>住院复核数据列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽取住院复核数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchRefuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量打回处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewResultList</t>
+  </si>
+  <si>
+    <t>查询医嘱个人复合结果详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+  </si>
+  <si>
+    <t>createProjectReport</t>
+  </si>
+  <si>
+    <t>生成项目报表</t>
+  </si>
+  <si>
+    <t>/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成项目报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/excuteReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/createProjectReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/reviewResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人复合结果详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/excuteReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询医嘱个人复合结果详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/addReplyTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/nextAuditTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找下一张审核信息的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/medicationinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getVitalSignStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已审处方列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/cancelgroupdrug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/resultReceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/api/v1/analysis/ipt/getIptCheckData</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>住院复核数据列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取住院复核数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchRefuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量打回处方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewResultList</t>
-  </si>
-  <si>
-    <t>查询医嘱个人复合结果详情</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/reviewResultList</t>
-  </si>
-  <si>
-    <t>createProjectReport</t>
-  </si>
-  <si>
-    <t>生成项目报表</t>
-  </si>
-  <si>
-    <t>/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>生成项目报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/excuteReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/createProjectReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/reviewResultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询个人复合结果详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/reviewResultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/excuteReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询医嘱个人复合结果详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/addReplyTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/nextAuditTaskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportDrugMessageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找下一张审核信息的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2423,7 +2447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2451,6 +2475,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2599,7 +2635,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2673,6 +2709,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2759,6 +2797,24 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2778,24 +2834,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
@@ -2808,25 +2846,19 @@
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="7"/>
+    <tableColumn id="4" name="Method" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G171" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="E1:G171">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="N"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G171" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E1:G171"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Case" dataDxfId="4"/>
-    <tableColumn id="2" name="列1" dataDxfId="3"/>
-    <tableColumn id="3" name="列2" dataDxfId="2"/>
+    <tableColumn id="1" name="Case" dataDxfId="2"/>
+    <tableColumn id="2" name="列1" dataDxfId="1"/>
+    <tableColumn id="3" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5044,13 +5076,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B148" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C148" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -5058,13 +5090,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B149" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C149" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -5072,13 +5104,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C150" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -5086,13 +5118,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B151" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C151" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -5100,13 +5132,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B152" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C152" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5114,13 +5146,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B153" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C153" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5128,13 +5160,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B154" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C154" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5142,13 +5174,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B155" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C155" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -5156,13 +5188,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B156" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C156" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -5170,13 +5202,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B157" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C157" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5184,13 +5216,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B158" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C158" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5198,13 +5230,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B159" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C159" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D159" t="s">
         <v>14</v>
@@ -5212,13 +5244,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B160" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C160" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5226,13 +5258,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B161" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C161" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="D161" t="s">
         <v>79</v>
@@ -5240,13 +5272,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B162" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C162" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -5254,13 +5286,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B163" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C163" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5268,13 +5300,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B164" t="s">
         <v>119</v>
       </c>
       <c r="C164" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
@@ -5282,13 +5314,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B165" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C165" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
@@ -5296,13 +5328,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B166" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C166" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5310,13 +5342,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B167" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C167" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5324,13 +5356,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B168" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C168" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -5338,13 +5370,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B169" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C169" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -5352,13 +5384,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B170" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C170" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -5366,13 +5398,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B171" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C171" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -5394,8 +5426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C137" sqref="C137"/>
+    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5424,21 +5456,21 @@
         <v>308</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -5449,15 +5481,15 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" hidden="1">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -5468,7 +5500,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -5487,7 +5519,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" hidden="1">
+    <row r="5" spans="1:7">
       <c r="C5" t="s">
         <v>311</v>
       </c>
@@ -5500,7 +5532,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" hidden="1">
+    <row r="6" spans="1:7">
       <c r="C6" t="s">
         <v>312</v>
       </c>
@@ -5515,18 +5547,18 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5534,7 +5566,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -5545,7 +5577,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -5553,20 +5585,20 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="C10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -5577,7 +5609,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="C11" t="s">
         <v>314</v>
       </c>
@@ -5590,15 +5622,15 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -5609,15 +5641,15 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C13" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -5628,7 +5660,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5636,7 +5668,7 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -5647,15 +5679,15 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -5666,15 +5698,15 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -5685,15 +5717,15 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -5704,15 +5736,15 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C18" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -5723,7 +5755,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" hidden="1">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -5731,7 +5763,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -5742,15 +5774,15 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C20" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -5761,7 +5793,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -5769,7 +5801,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -5823,40 +5855,40 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C24" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" hidden="1">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C25" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" hidden="1">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -5875,7 +5907,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" hidden="1">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -5894,7 +5926,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -5913,7 +5945,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -5932,7 +5964,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -5951,7 +5983,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -5959,7 +5991,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -5970,7 +6002,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -5989,7 +6021,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>85</v>
       </c>
@@ -5997,7 +6029,7 @@
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -6013,10 +6045,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>604</v>
       </c>
       <c r="C34" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -6024,10 +6056,14 @@
       <c r="E34" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" hidden="1">
+      <c r="F34" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G34" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>88</v>
       </c>
@@ -6046,7 +6082,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -6054,7 +6090,7 @@
         <v>92</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
@@ -6065,7 +6101,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" hidden="1">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -6073,7 +6109,7 @@
         <v>95</v>
       </c>
       <c r="C37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -6084,7 +6120,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6092,7 +6128,7 @@
         <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>11</v>
@@ -6103,7 +6139,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" hidden="1">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -6111,7 +6147,7 @@
         <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -6122,7 +6158,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" hidden="1">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>103</v>
       </c>
@@ -6130,7 +6166,7 @@
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>11</v>
@@ -6141,7 +6177,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -6149,7 +6185,7 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -6160,7 +6196,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -6168,18 +6204,18 @@
         <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" hidden="1">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>112</v>
       </c>
@@ -6187,7 +6223,7 @@
         <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -6198,7 +6234,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" hidden="1">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -6206,18 +6242,18 @@
         <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" hidden="1">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -6225,7 +6261,7 @@
         <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -6236,15 +6272,15 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" hidden="1">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
         <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -6253,11 +6289,11 @@
         <v>309</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" hidden="1">
+    <row r="47" spans="1:7">
       <c r="C47" t="s">
         <v>315</v>
       </c>
@@ -6270,7 +6306,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1">
+    <row r="48" spans="1:7">
       <c r="C48" t="s">
         <v>316</v>
       </c>
@@ -6283,9 +6319,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1">
+    <row r="49" spans="1:7">
       <c r="C49" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
@@ -6296,9 +6332,9 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1">
+    <row r="50" spans="1:7">
       <c r="C50" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>11</v>
@@ -6309,9 +6345,9 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" hidden="1">
+    <row r="51" spans="1:7">
       <c r="C51" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -6322,7 +6358,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" hidden="1">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -6330,7 +6366,7 @@
         <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>11</v>
@@ -6341,35 +6377,35 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" hidden="1">
+    <row r="53" spans="1:7">
       <c r="C53" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1">
+    <row r="54" spans="1:7">
       <c r="C54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1">
+    <row r="55" spans="1:7">
       <c r="C55" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -6380,22 +6416,22 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1">
+    <row r="56" spans="1:7">
       <c r="C56" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1">
+    <row r="57" spans="1:7">
       <c r="C57" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -6406,9 +6442,9 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" hidden="1">
+    <row r="58" spans="1:7">
       <c r="C58" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
@@ -6419,9 +6455,9 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" hidden="1">
+    <row r="59" spans="1:7">
       <c r="C59" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -6432,9 +6468,9 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" hidden="1">
+    <row r="60" spans="1:7">
       <c r="C60" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>11</v>
@@ -6445,9 +6481,9 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" hidden="1">
+    <row r="61" spans="1:7">
       <c r="C61" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -6458,9 +6494,9 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1">
+    <row r="62" spans="1:7">
       <c r="C62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>11</v>
@@ -6471,9 +6507,9 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1">
+    <row r="63" spans="1:7">
       <c r="C63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -6484,7 +6520,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>143</v>
       </c>
@@ -6503,20 +6539,20 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" hidden="1">
+    <row r="65" spans="1:7">
       <c r="C65" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" hidden="1">
+    <row r="66" spans="1:7">
       <c r="C66" t="s">
         <v>318</v>
       </c>
@@ -6529,7 +6565,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" hidden="1">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>148</v>
       </c>
@@ -6537,7 +6573,7 @@
         <v>149</v>
       </c>
       <c r="C67" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>11</v>
@@ -6548,7 +6584,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" hidden="1">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -6567,12 +6603,12 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" hidden="1">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -6581,20 +6617,20 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" hidden="1">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>155</v>
       </c>
       <c r="B70" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C70" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>11</v>
@@ -6605,15 +6641,15 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" hidden="1">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>11</v>
@@ -6624,7 +6660,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" hidden="1">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -6632,26 +6668,26 @@
         <v>162</v>
       </c>
       <c r="C72" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" hidden="1">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>164</v>
       </c>
       <c r="B73" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C73" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>11</v>
@@ -6662,15 +6698,15 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" hidden="1">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>167</v>
       </c>
       <c r="B74" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C74" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>11</v>
@@ -6681,15 +6717,15 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" hidden="1">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C75" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>11</v>
@@ -6700,15 +6736,15 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" hidden="1">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>173</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C76" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>11</v>
@@ -6719,15 +6755,15 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" hidden="1">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>176</v>
       </c>
       <c r="B77" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C77" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>11</v>
@@ -6738,34 +6774,34 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" hidden="1">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C78" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" hidden="1">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>182</v>
       </c>
       <c r="B79" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C79" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>11</v>
@@ -6776,15 +6812,15 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" hidden="1">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>185</v>
       </c>
       <c r="B80" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C80" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>11</v>
@@ -6795,15 +6831,15 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" hidden="1">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="C81" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>11</v>
@@ -6814,15 +6850,15 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" hidden="1">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>191</v>
       </c>
       <c r="B82" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>11</v>
@@ -6833,15 +6869,15 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" hidden="1">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>194</v>
       </c>
       <c r="B83" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>11</v>
@@ -6852,15 +6888,15 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" hidden="1">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C84" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>11</v>
@@ -6871,34 +6907,34 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" hidden="1">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C85" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" hidden="1">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C86" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>11</v>
@@ -6907,32 +6943,32 @@
         <v>309</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" hidden="1">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" hidden="1">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>207</v>
       </c>
@@ -6940,7 +6976,7 @@
         <v>320</v>
       </c>
       <c r="C88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>11</v>
@@ -6959,17 +6995,15 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>371</v>
+        <v>600</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>375</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
     <row r="90" spans="1:7">
@@ -7007,18 +7041,22 @@
       <c r="E91" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" hidden="1">
+      <c r="F91" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G91" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>11</v>
@@ -7029,7 +7067,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" hidden="1">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>155</v>
       </c>
@@ -7037,7 +7075,7 @@
         <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>11</v>
@@ -7048,7 +7086,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" hidden="1">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -7067,7 +7105,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" hidden="1">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>161</v>
       </c>
@@ -7086,7 +7124,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" hidden="1">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -7105,7 +7143,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" hidden="1">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -7124,7 +7162,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" hidden="1">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>170</v>
       </c>
@@ -7143,7 +7181,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" hidden="1">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>173</v>
       </c>
@@ -7162,7 +7200,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" hidden="1">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -7181,7 +7219,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" hidden="1">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>179</v>
       </c>
@@ -7200,7 +7238,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" hidden="1">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -7219,7 +7257,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" hidden="1">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>185</v>
       </c>
@@ -7238,7 +7276,7 @@
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" hidden="1">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>188</v>
       </c>
@@ -7257,7 +7295,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" hidden="1">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>191</v>
       </c>
@@ -7276,7 +7314,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" hidden="1">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -7295,7 +7333,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" hidden="1">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>197</v>
       </c>
@@ -7314,7 +7352,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" hidden="1">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>200</v>
       </c>
@@ -7333,7 +7371,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" hidden="1">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>103</v>
       </c>
@@ -7352,7 +7390,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" hidden="1">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>204</v>
       </c>
@@ -7371,7 +7409,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" hidden="1">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>207</v>
       </c>
@@ -7379,7 +7417,7 @@
         <v>208</v>
       </c>
       <c r="C111" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>11</v>
@@ -7417,7 +7455,7 @@
         <v>214</v>
       </c>
       <c r="C113" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>14</v>
@@ -7428,7 +7466,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" hidden="1">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -7436,7 +7474,7 @@
         <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>11</v>
@@ -7455,7 +7493,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>603</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -7466,7 +7504,7 @@
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" hidden="1">
+    <row r="116" spans="1:7">
       <c r="B116" t="s">
         <v>245</v>
       </c>
@@ -7482,12 +7520,12 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" hidden="1">
+    <row r="117" spans="1:7">
       <c r="B117" t="s">
         <v>247</v>
       </c>
       <c r="C117" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>11</v>
@@ -7508,10 +7546,12 @@
       <c r="E118" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" hidden="1">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>250</v>
       </c>
@@ -7530,7 +7570,7 @@
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" hidden="1">
+    <row r="120" spans="1:7">
       <c r="B120" t="s">
         <v>252</v>
       </c>
@@ -7554,7 +7594,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>392</v>
+        <v>602</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -7562,23 +7602,25 @@
       <c r="E121" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="F121" s="1"/>
+      <c r="F121" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" hidden="1">
+    <row r="122" spans="1:7">
       <c r="C122" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" hidden="1">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>118</v>
       </c>
@@ -7586,7 +7628,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>11</v>
@@ -7597,7 +7639,7 @@
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" hidden="1">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>91</v>
       </c>
@@ -7605,7 +7647,7 @@
         <v>92</v>
       </c>
       <c r="C124" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>11</v>
@@ -7616,7 +7658,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" hidden="1">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>94</v>
       </c>
@@ -7624,7 +7666,7 @@
         <v>95</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>11</v>
@@ -7633,11 +7675,11 @@
         <v>309</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" hidden="1">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>97</v>
       </c>
@@ -7645,18 +7687,18 @@
         <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" hidden="1">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>100</v>
       </c>
@@ -7664,18 +7706,18 @@
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" hidden="1">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>103</v>
       </c>
@@ -7683,7 +7725,7 @@
         <v>104</v>
       </c>
       <c r="C128" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>11</v>
@@ -7694,7 +7736,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>106</v>
       </c>
@@ -7702,7 +7744,7 @@
         <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>11</v>
@@ -7713,7 +7755,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>112</v>
       </c>
@@ -7721,7 +7763,7 @@
         <v>113</v>
       </c>
       <c r="C130" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>11</v>
@@ -7730,11 +7772,11 @@
         <v>309</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>88</v>
       </c>
@@ -7742,7 +7784,7 @@
         <v>266</v>
       </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>11</v>
@@ -7753,7 +7795,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>109</v>
       </c>
@@ -7761,7 +7803,7 @@
         <v>110</v>
       </c>
       <c r="C132" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>11</v>
@@ -7772,7 +7814,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>115</v>
       </c>
@@ -7780,18 +7822,18 @@
         <v>116</v>
       </c>
       <c r="C133" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="C134" t="s">
         <v>270</v>
       </c>
@@ -7831,7 +7873,7 @@
         <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
+        <v>607</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>14</v>
@@ -7863,7 +7905,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="C138" t="s">
-        <v>280</v>
+        <v>608</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>14</v>
@@ -7876,22 +7918,24 @@
     </row>
     <row r="139" spans="1:9">
       <c r="C139" t="s">
-        <v>386</v>
+        <v>601</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G139" s="1"/>
-    </row>
-    <row r="140" spans="1:9" hidden="1">
+        <v>372</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="C140" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>11</v>
@@ -7901,23 +7945,18 @@
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
-      <c r="H140" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="I140" s="1">
-        <f>COUNTIF(表格4[Case],"N")</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" hidden="1">
+      <c r="H140" s="2"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>282</v>
       </c>
       <c r="B141" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C141" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>11</v>
@@ -7928,7 +7967,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>285</v>
       </c>
@@ -7936,7 +7975,7 @@
         <v>286</v>
       </c>
       <c r="C142" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>11</v>
@@ -7955,26 +7994,26 @@
         <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C144" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -7985,7 +8024,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" hidden="1">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -7993,7 +8032,7 @@
         <v>295</v>
       </c>
       <c r="C145" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>11</v>
@@ -8004,7 +8043,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" hidden="1">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>297</v>
       </c>
@@ -8012,7 +8051,7 @@
         <v>298</v>
       </c>
       <c r="C146" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>11</v>
@@ -8023,7 +8062,7 @@
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" hidden="1">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -8031,7 +8070,7 @@
         <v>301</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>11</v>
@@ -8042,56 +8081,56 @@
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" hidden="1">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>484</v>
-      </c>
-      <c r="B148" t="s">
-        <v>575</v>
+        <v>479</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>569</v>
       </c>
       <c r="C148" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="18" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="F148" s="18"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" hidden="1">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>487</v>
-      </c>
-      <c r="B149" t="s">
-        <v>542</v>
+        <v>482</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>537</v>
       </c>
       <c r="C149" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F149" s="18"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" hidden="1">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>490</v>
-      </c>
-      <c r="B150" t="s">
-        <v>573</v>
+        <v>485</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>567</v>
       </c>
       <c r="C150" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>14</v>
+        <v>610</v>
       </c>
       <c r="E150" s="18" t="s">
         <v>309</v>
@@ -8099,401 +8138,401 @@
       <c r="F150" s="18"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" hidden="1">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>493</v>
-      </c>
-      <c r="B151" t="s">
-        <v>494</v>
+        <v>488</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>489</v>
       </c>
       <c r="C151" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="18" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F151" s="18"/>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" hidden="1">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>496</v>
-      </c>
-      <c r="B152" t="s">
-        <v>548</v>
+        <v>491</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>543</v>
       </c>
       <c r="C152" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="1"/>
     </row>
-    <row r="153" spans="1:7" hidden="1">
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>499</v>
-      </c>
-      <c r="B153" t="s">
-        <v>568</v>
+        <v>494</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>563</v>
       </c>
       <c r="C153" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E153" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F153" s="18"/>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" hidden="1">
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B154" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C154" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F154" s="18"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" hidden="1">
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B155" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C155" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E155" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F155" s="18"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" hidden="1">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B156" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C156" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F156" s="18"/>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" hidden="1">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B157" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C157" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F157" s="18"/>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" hidden="1">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B158" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C158" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E158" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F158" s="18"/>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" hidden="1">
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B159" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C159" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E159" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F159" s="18"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" spans="1:7" hidden="1">
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B160" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C160" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E160" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F160" s="18"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" hidden="1">
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B161" t="s">
         <v>119</v>
       </c>
       <c r="C161" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E161" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F161" s="18"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" hidden="1">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B162" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C162" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F162" s="18"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" hidden="1">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B163" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C163" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F163" s="18"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" hidden="1">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B164" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C164" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F164" s="18"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" hidden="1">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B165" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C165" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F165" s="18"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" hidden="1">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B166" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C166" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F166" s="18"/>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" hidden="1">
+    <row r="167" spans="1:7">
       <c r="A167" s="16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D167" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F167" s="18"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" hidden="1">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B168" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C168" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F168" s="18"/>
       <c r="G168" s="18"/>
     </row>
-    <row r="169" spans="1:7" hidden="1">
+    <row r="169" spans="1:7">
       <c r="A169" s="16" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D169" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E169" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7" hidden="1">
+    <row r="170" spans="1:7">
       <c r="A170" s="16" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B170" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="C170" s="16" t="s">
         <v>586</v>
       </c>
-      <c r="C170" s="16" t="s">
-        <v>591</v>
-      </c>
       <c r="D170" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E170" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F170" s="18"/>
       <c r="G170" s="18"/>
     </row>
-    <row r="171" spans="1:7" hidden="1">
+    <row r="171" spans="1:7">
       <c r="A171" s="16" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D171" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E171" s="18" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
@@ -8504,7 +8543,7 @@
       </c>
       <c r="F177" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="178" spans="5:6">
@@ -8513,18 +8552,18 @@
       </c>
       <c r="F178" s="1">
         <f>COUNTIF(表格4[Case],"N")</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E171 E174:E176 I140 F177 E179:E1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8561,94 +8600,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="19" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
       <c r="D1" s="21"/>
       <c r="E1" s="12" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="15" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>445</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="315" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="195" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="270" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -8686,94 +8725,94 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="22" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="24"/>
       <c r="E1" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="255">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="165">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="255">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="105">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E7" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1180" yWindow="0" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-2640" yWindow="-22060" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="586">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -2008,75 +2008,11 @@
     <t>/api/v1/analysis/export</t>
   </si>
   <si>
-    <t>/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>门诊已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院已复核数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取复核项目列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取项目条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>列2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getCheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取一组药的复核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/saveProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/deleteProject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询复核操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2167,78 +2103,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看项目报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取调用接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/saveCheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存复核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/checkProjectList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckResultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getCheckResultQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>住院复核数据列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽取住院复核数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/api/v1/auditBatchAgree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2276,111 +2144,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生成项目报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>/api/v1/addReplyTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/nextAuditTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找下一张审核信息的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/medicationinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getVitalSignStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已审处方列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/cancelgroupdrug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/resultReceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人复合结果详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/reviewResultList</t>
+  </si>
+  <si>
+    <t>getTotalCheckNum</t>
+  </si>
+  <si>
+    <t>住院总复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getTotalCheckNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/createProjectReport</t>
+  </si>
+  <si>
+    <t>getPreviousEngineId</t>
+  </si>
+  <si>
+    <t>获取上一条记录</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getPreviousEngineId</t>
+  </si>
+  <si>
+    <t>getNextEngineId</t>
+  </si>
+  <si>
+    <t>获取下一条记录</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getNextEngineId</t>
+  </si>
+  <si>
+    <t>/getTotalNum</t>
+  </si>
+  <si>
+    <t>门诊复合总数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getTotalNum</t>
   </si>
   <si>
     <t>/api/v1/analysis/excuteReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/createProjectReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/reviewResultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询个人复合结果详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/reviewResultList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/excuteReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询医嘱个人复合结果详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/addReplyTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/api/v1/nextAuditTaskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportDrugMessageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查找下一张审核信息的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/medicationinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getVitalSignStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取已审处方列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/cancelgroupdrug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/resultReceive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getIptCheckData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,7 +2331,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2475,18 +2359,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,7 +2424,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2634,8 +2506,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2684,10 +2564,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,10 +2585,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="89">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2753,6 +2628,10 @@
     <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2793,26 +2672,22 @@
     <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2834,31 +2709,69 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D171" totalsRowShown="0">
-  <autoFilter ref="A1:D171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表格3" displayName="表格3" ref="A1:D175" totalsRowShown="0">
+  <autoFilter ref="A1:D175"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="5"/>
+    <tableColumn id="4" name="Method" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G171" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="E1:G171"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G175" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="E1:G175"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Case" dataDxfId="2"/>
-    <tableColumn id="2" name="列1" dataDxfId="1"/>
-    <tableColumn id="3" name="列2" dataDxfId="0"/>
+    <tableColumn id="1" name="Case" dataDxfId="7"/>
+    <tableColumn id="2" name="列1" dataDxfId="6"/>
+    <tableColumn id="3" name="列2" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3186,16 +3099,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A133" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
     <col min="3" max="3" width="62.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5076,13 +4989,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B148" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="C148" t="s">
-        <v>587</v>
+        <v>568</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -5090,13 +5003,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>576</v>
+        <v>543</v>
       </c>
       <c r="B149" t="s">
-        <v>577</v>
+        <v>544</v>
       </c>
       <c r="C149" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -5118,13 +5031,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>482</v>
+        <v>569</v>
       </c>
       <c r="B151" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
       <c r="C151" t="s">
-        <v>484</v>
+        <v>571</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -5132,13 +5045,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B152" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C152" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5146,13 +5059,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B153" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5160,13 +5073,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B154" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C154" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5174,41 +5087,41 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B155" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C155" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>579</v>
+        <v>494</v>
       </c>
       <c r="B156" t="s">
-        <v>584</v>
+        <v>495</v>
       </c>
       <c r="C156" t="s">
-        <v>586</v>
+        <v>496</v>
       </c>
       <c r="D156" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="B157" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="C157" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5216,13 +5129,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>500</v>
+        <v>573</v>
       </c>
       <c r="B158" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="C158" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5230,27 +5143,27 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="B159" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>578</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B160" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C160" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5258,27 +5171,27 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B161" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C161" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D161" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B162" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C162" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -5286,13 +5199,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>581</v>
+        <v>506</v>
       </c>
       <c r="B163" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C163" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5300,27 +5213,27 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B164" t="s">
-        <v>119</v>
+        <v>509</v>
       </c>
       <c r="C164" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B165" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="C165" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
@@ -5328,13 +5241,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="B166" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="C166" t="s">
-        <v>522</v>
+        <v>549</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5342,13 +5255,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="B167" t="s">
-        <v>524</v>
+        <v>580</v>
       </c>
       <c r="C167" t="s">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5356,13 +5269,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B168" t="s">
-        <v>524</v>
+        <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -5370,27 +5283,27 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B169" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C169" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D169" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B170" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C170" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -5398,15 +5311,71 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="B171" t="s">
-        <v>584</v>
+        <v>524</v>
       </c>
       <c r="C171" t="s">
-        <v>585</v>
+        <v>525</v>
       </c>
       <c r="D171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>526</v>
+      </c>
+      <c r="B172" t="s">
+        <v>524</v>
+      </c>
+      <c r="C172" t="s">
+        <v>527</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>528</v>
+      </c>
+      <c r="B173" t="s">
+        <v>528</v>
+      </c>
+      <c r="C173" t="s">
+        <v>529</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>530</v>
+      </c>
+      <c r="B174" t="s">
+        <v>531</v>
+      </c>
+      <c r="C174" t="s">
+        <v>532</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>547</v>
+      </c>
+      <c r="B175" t="s">
+        <v>547</v>
+      </c>
+      <c r="C175" t="s">
+        <v>582</v>
+      </c>
+      <c r="D175" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5426,8 +5395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5459,7 +5428,7 @@
         <v>373</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5547,13 +5516,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>596</v>
+        <v>554</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>597</v>
+        <v>555</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5763,7 +5732,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>573</v>
+        <v>540</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -5779,10 +5748,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>575</v>
+        <v>542</v>
       </c>
       <c r="C20" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -5855,16 +5824,16 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>598</v>
+        <v>556</v>
       </c>
       <c r="C24" t="s">
-        <v>595</v>
+        <v>553</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>599</v>
+        <v>557</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -6045,7 +6014,7 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>604</v>
+        <v>562</v>
       </c>
       <c r="C34" t="s">
         <v>477</v>
@@ -6057,7 +6026,7 @@
         <v>310</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>605</v>
+        <v>563</v>
       </c>
       <c r="G34" s="1">
         <v>500</v>
@@ -6995,7 +6964,7 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>600</v>
+        <v>558</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
@@ -7042,7 +7011,7 @@
         <v>310</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="G91" s="1">
         <v>500</v>
@@ -7493,7 +7462,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -7547,7 +7516,7 @@
         <v>310</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -7594,7 +7563,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>602</v>
+        <v>560</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -7603,7 +7572,7 @@
         <v>310</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -7873,7 +7842,7 @@
         <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>607</v>
+        <v>565</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>14</v>
@@ -7905,7 +7874,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="C138" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>14</v>
@@ -7918,7 +7887,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="C139" t="s">
-        <v>601</v>
+        <v>559</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -7930,7 +7899,7 @@
         <v>372</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>606</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7994,13 +7963,13 @@
         <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -8083,459 +8052,535 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>479</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>569</v>
+        <v>543</v>
+      </c>
+      <c r="B148" t="s">
+        <v>567</v>
       </c>
       <c r="C148" t="s">
         <v>568</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="F148" s="18"/>
+      <c r="D148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="F148" s="16"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>482</v>
-      </c>
-      <c r="B149" s="25" t="s">
-        <v>537</v>
+        <v>543</v>
+      </c>
+      <c r="B149" t="s">
+        <v>544</v>
       </c>
       <c r="C149" t="s">
-        <v>534</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E149" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F149" s="18"/>
+        <v>545</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F149" s="16"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>485</v>
-      </c>
-      <c r="B150" s="25" t="s">
-        <v>567</v>
+        <v>479</v>
+      </c>
+      <c r="B150" t="s">
+        <v>480</v>
       </c>
       <c r="C150" t="s">
-        <v>609</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="E150" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F150" s="18"/>
+        <v>481</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="F150" s="16"/>
       <c r="G150" s="1"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>488</v>
-      </c>
-      <c r="B151" s="25" t="s">
-        <v>489</v>
+        <v>569</v>
+      </c>
+      <c r="B151" s="23" t="s">
+        <v>570</v>
       </c>
       <c r="C151" t="s">
-        <v>549</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="F151" s="18"/>
+        <v>571</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="F151" s="16"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>491</v>
-      </c>
-      <c r="B152" s="26" t="s">
-        <v>543</v>
+        <v>482</v>
+      </c>
+      <c r="B152" t="s">
+        <v>483</v>
       </c>
       <c r="C152" t="s">
-        <v>542</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E152" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F152" s="18"/>
+        <v>484</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F152" s="16"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>494</v>
-      </c>
-      <c r="B153" s="26" t="s">
-        <v>563</v>
+        <v>485</v>
+      </c>
+      <c r="B153" t="s">
+        <v>486</v>
       </c>
       <c r="C153" t="s">
-        <v>562</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F153" s="18"/>
+        <v>487</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F153" s="16"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B154" t="s">
-        <v>538</v>
+        <v>489</v>
       </c>
       <c r="C154" t="s">
-        <v>564</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E154" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F154" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F154" s="16"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B155" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C155" t="s">
-        <v>565</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="E155" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F155" s="18"/>
+        <v>493</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F155" s="16"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B156" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
       <c r="C156" t="s">
-        <v>560</v>
-      </c>
-      <c r="D156" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E156" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F156" s="18"/>
+      <c r="E156" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F156" s="16"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>506</v>
+        <v>546</v>
       </c>
       <c r="B157" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C157" t="s">
-        <v>566</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E157" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F157" s="18"/>
+        <v>572</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F157" s="16"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>508</v>
-      </c>
-      <c r="B158" t="s">
-        <v>546</v>
+        <v>573</v>
+      </c>
+      <c r="B158" s="23" t="s">
+        <v>574</v>
       </c>
       <c r="C158" t="s">
-        <v>545</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E158" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F158" s="18"/>
+        <v>575</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F158" s="16"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>511</v>
-      </c>
-      <c r="B159" t="s">
-        <v>512</v>
+        <v>576</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>577</v>
       </c>
       <c r="C159" t="s">
-        <v>544</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E159" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F159" s="18"/>
+        <v>578</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F159" s="16"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
+        <v>497</v>
+      </c>
+      <c r="B160" t="s">
+        <v>498</v>
+      </c>
+      <c r="C160" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E160" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="B160" t="s">
-        <v>536</v>
-      </c>
-      <c r="C160" t="s">
-        <v>590</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E160" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F160" s="18"/>
+      <c r="F160" s="16"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B161" t="s">
-        <v>119</v>
+        <v>501</v>
       </c>
       <c r="C161" t="s">
-        <v>516</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="E161" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F161" s="18"/>
+        <v>502</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F161" s="16"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="B162" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="C162" t="s">
-        <v>519</v>
-      </c>
-      <c r="D162" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F162" s="18"/>
+      <c r="E162" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F162" s="16"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B163" t="s">
-        <v>548</v>
+        <v>506</v>
       </c>
       <c r="C163" t="s">
-        <v>547</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F163" s="18"/>
+        <v>507</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F163" s="16"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="B164" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C164" t="s">
-        <v>571</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F164" s="18"/>
+        <v>510</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F164" s="16"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="B165" t="s">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="C165" t="s">
-        <v>572</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="18" t="s">
-        <v>535</v>
-      </c>
-      <c r="F165" s="18"/>
+        <v>513</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="F165" s="16"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="B166" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="C166" t="s">
-        <v>557</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E166" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F166" s="18"/>
+        <v>549</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F166" s="16"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="C167" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="D167" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E167" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F167" s="18"/>
+      <c r="A167" t="s">
+        <v>579</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="C167" t="s">
+        <v>581</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="F167" s="16"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>576</v>
+        <v>515</v>
       </c>
       <c r="B168" t="s">
-        <v>588</v>
+        <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>587</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F168" s="18"/>
-      <c r="G168" s="18"/>
+        <v>516</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B169" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="D169" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F169" s="18"/>
-      <c r="G169" s="18"/>
+      <c r="A169" t="s">
+        <v>517</v>
+      </c>
+      <c r="B169" t="s">
+        <v>518</v>
+      </c>
+      <c r="C169" t="s">
+        <v>519</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="B170" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="D170" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F170" s="18"/>
-      <c r="G170" s="18"/>
+      <c r="A170" t="s">
+        <v>520</v>
+      </c>
+      <c r="B170" t="s">
+        <v>521</v>
+      </c>
+      <c r="C170" t="s">
+        <v>522</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="D171" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+      <c r="A171" t="s">
+        <v>523</v>
+      </c>
+      <c r="B171" t="s">
+        <v>524</v>
+      </c>
+      <c r="C171" t="s">
+        <v>525</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>526</v>
+      </c>
+      <c r="B172" t="s">
+        <v>524</v>
+      </c>
+      <c r="C172" t="s">
+        <v>527</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>528</v>
+      </c>
+      <c r="B173" t="s">
+        <v>528</v>
+      </c>
+      <c r="C173" t="s">
+        <v>529</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>530</v>
+      </c>
+      <c r="B174" t="s">
+        <v>531</v>
+      </c>
+      <c r="C174" t="s">
+        <v>532</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>547</v>
+      </c>
+      <c r="B175" t="s">
+        <v>547</v>
+      </c>
+      <c r="C175" t="s">
+        <v>582</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
     </row>
     <row r="177" spans="5:6">
       <c r="E177" s="2" t="s">
@@ -8543,7 +8588,7 @@
       </c>
       <c r="F177" s="1">
         <f>COUNTIF(表格4[Case],"Y")</f>
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="178" spans="5:6">
@@ -8557,13 +8602,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1:E171 E174:E176 I140 F177 E179:E1048576">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+  <conditionalFormatting sqref="E1:E176 I140 F177 E179:E1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8585,8 +8630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8599,12 +8644,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="12" t="s">
         <v>437</v>
       </c>
@@ -8724,12 +8769,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="5" t="s">
         <v>437</v>
       </c>
@@ -8760,7 +8805,7 @@
         <v>439</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -8773,7 +8818,7 @@
         <v>455</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -8799,7 +8844,7 @@
         <v>450</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="E6" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-22060" windowWidth="38400" windowHeight="21600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-2640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="587">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -1474,10 +1474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新建复核项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试要点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1498,773 +1494,553 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.进入新增复核项目页面，来源选择住院，其余复核条件显示正确（日期、药师、抽取方式）
+    <t>审方质量评价
+查看项目报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试方案--审方质量评价（门诊处方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/deleteReplyTemplate/{replyTemplateId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/openAlertMsgDpRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开警示信息描述按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警示信息申请状态，确认待查操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/endOfAudit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束审方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBeating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核药师工作状态心跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/releaseAuditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束正在审核的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置任务的审核状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditPlan/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取配置的审方方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/opt/all/optRecipeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/batchPending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extractIptCheckData</t>
+  </si>
+  <si>
+    <t>抽取住院复核数据</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
+  </si>
+  <si>
+    <t>getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>住院已复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>getIptCheckData</t>
+  </si>
+  <si>
+    <t>住院复核数据列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getIptCheckData</t>
+  </si>
+  <si>
+    <t>checkIptOrderData</t>
+  </si>
+  <si>
+    <t>住院医嘱复核数据详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
+  </si>
+  <si>
+    <t>getCheckResult</t>
+  </si>
+  <si>
+    <t>获取一组药的复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getCheckResult</t>
+  </si>
+  <si>
+    <t>saveCheckResult</t>
+  </si>
+  <si>
+    <t>保存复核结果</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/saveCheckResult</t>
+  </si>
+  <si>
+    <t>复核项目列表</t>
+  </si>
+  <si>
+    <t>获取复核项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/checkProjectList</t>
+  </si>
+  <si>
+    <t>查看处方列表</t>
+  </si>
+  <si>
+    <t>获取项目列表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckResultList</t>
+  </si>
+  <si>
+    <t>抽取接口</t>
+  </si>
+  <si>
+    <t>抽取调用接口</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getCheckList</t>
+  </si>
+  <si>
+    <t>获取项目条件</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getCheckResultQuery</t>
+  </si>
+  <si>
+    <t>/deleteProject</t>
+  </si>
+  <si>
+    <t>删除项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/deleteProject</t>
+  </si>
+  <si>
+    <t>saveProject</t>
+  </si>
+  <si>
+    <t>保存项目</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/saveProject</t>
+  </si>
+  <si>
+    <t>门诊已复核数</t>
+  </si>
+  <si>
+    <t>/opt/recipeInfo</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
+  </si>
+  <si>
+    <t>saveOperation</t>
+  </si>
+  <si>
+    <t>保存复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/saveOperation</t>
+  </si>
+  <si>
+    <t>getOperation</t>
+  </si>
+  <si>
+    <t>查询复核操作</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getOperation</t>
+  </si>
+  <si>
+    <t>/opt/nextId</t>
+  </si>
+  <si>
+    <t>获取下一条处方id</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/nextId</t>
+  </si>
+  <si>
+    <t>/opt/previousId</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/previousId</t>
+  </si>
+  <si>
+    <t>查看项目报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/getReportList</t>
+  </si>
+  <si>
+    <t>/export</t>
+  </si>
+  <si>
+    <t>导出报表</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/export</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchAgree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditBatchRefuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量打回处方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewResultList</t>
+  </si>
+  <si>
+    <t>查询医嘱个人复合结果详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+  </si>
+  <si>
+    <t>createProjectReport</t>
+  </si>
+  <si>
+    <t>生成项目报表</t>
+  </si>
+  <si>
+    <t>/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/addReplyTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/nextAuditTaskId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/exportDrugMessageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找下一张审核信息的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/all/aroundAuditResultId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/medicationinfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/ipt/getVitalSignStartDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取已审处方列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/cancelgroupdrug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/resultReceive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询个人复合结果详情</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/reviewResultList</t>
+  </si>
+  <si>
+    <t>getTotalCheckNum</t>
+  </si>
+  <si>
+    <t>住院总复核数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getTotalCheckNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/createProjectReport</t>
+  </si>
+  <si>
+    <t>getPreviousEngineId</t>
+  </si>
+  <si>
+    <t>获取上一条记录</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getPreviousEngineId</t>
+  </si>
+  <si>
+    <t>getNextEngineId</t>
+  </si>
+  <si>
+    <t>获取下一条记录</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/getNextEngineId</t>
+  </si>
+  <si>
+    <t>/getTotalNum</t>
+  </si>
+  <si>
+    <t>门诊复合总数</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/opt/getTotalNum</t>
+  </si>
+  <si>
+    <t>/api/v1/analysis/excuteReport</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/analysis/ipt/reviewResultList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建评价项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入新增评价项目页面，来源选择住院，其余评价条件显示正确（日期、药师、抽取方式）
 2.日期：药师审核的日期
 3.药师：显示所有审方药师供选择，支持多选
 4.来源：门/急诊、门诊、急诊、住院
 5.抽取方式：全部抽取、随机抽取两种方式；随机抽取：按百分比和按数量随机抽取；选择百分比，显示百分比输入框；选择指定数量随机，显示数量输入框，提示请输入大于0的整数
 6.抽取：点击抽取后展示符合条件的医嘱，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核详情页（医嘱）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.复核进度：当前复核完成的XML数/抽取的XML总数
-2.状态：全部、已复核和未复核，默认全部
-3.点击查看或者双击，进入复核详情页（医嘱）
-4.复核详情页（医嘱）基本信息（住院号、患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表、床位号、入院科室、入院时间）显示正确
+  </si>
+  <si>
+    <t>评价详情页（医嘱）</t>
+  </si>
+  <si>
+    <t>1.评价进度：当前评价完成的XML数/抽取的XML总数
+2.状态：全部、已评价和未评价，默认全部
+3.点击查看或者双击，进入评价详情页（医嘱）
+4.评价详情页（医嘱）基本信息（住院号、患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表、床位号、入院科室、入院时间）显示正确
 5.诊断、查看诊断记录、病程记录、入院记录、查看检验/检查单、查看手术正确
 6.药嘱信息正确：包括本次药嘱和其他合并药嘱
 7.住院信息汇总正确
-8.选中一条待复核的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并医嘱制作展示，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不可点击，审核操作记录是否展示？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-9.选择合理/不合理，复核意见最多支持200个字
-10.保存：打上合理/不合理的戳，并自动跳到下一条待复核核的数据；当前全部待复核的完成后，自动跳转到下一条XML记录
-11.返回任务清单：跳转到添加复核项目页面，该条XML的状态从未复核改成已复核：复核进度相应增加一条：状态选择已复核时候，可以搜到该条记录，状态选择未复核时候，搜不到该条记录
-12.操作：查看，该条医嘱的复核数据都已经打上了合理/不合理的戳，并</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>显示复核意见，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>复核人员是否可以重新选择是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>合理？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.点击保存项目，弹窗默认项目名称“年月日+创建人姓名”，用户可修改项目名称
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">如果项目名称重名，点确定时，需提示重名是否覆盖，是则覆盖，否则让用户修改项目名称
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.保存时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>比较久</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>需进度条显示（？）
+8.选中一条待评价的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并医嘱只做展示，不可点击，看不到警示信息。
+9.选择合理/不合理，评价意见最多支持200个字
+10.保存：打上合理/不合理的戳，通过点击到下一组药上，显示下一条待评价核的数据；当前全部待评价的完成后，通过点上一张下一张跳转到下一条XML记录
+11.返回任务清单：跳转到添加评价项目页面，该条XML的状态从未评价改成已评价：评价进度相应增加一条：状态选择已评价时候，可以搜到该条记录，状态选择未评价时候，搜不到该条记录
+12.操作：查看，该条医嘱的评价数据都已经打上了合理/不合理的戳，并显示评价意见，评价人员可以重新选择是否合理和评价意见</t>
+  </si>
+  <si>
+    <t>添加评价项目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.点击保存项目，弹窗默认项目名称“年月日+创建人姓名”，用户可修改项目名称
+2.如果项目名称重名，点确定时，需提示重名是否覆盖，是则覆盖，否则让用户修改项目名称
+3.保存时间比较久需进度条显示（？）
 4.提示保存成功或保存失败
 5.保存成功，保存项目按钮变成导出报表
-6.点击导出报表，弹框提示，点确定，默认将未复核的都标记成合理，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>导出报表是否是跳转到项目报表页？是否改成生成报表，后面报表页是导出报表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7.审方质量评价页面，多一条记录，检查项目名称，创建时间，创建人，数据时间，复核进度是否正确
+6.点击导出报表，弹框提示，点确定，默认将未评价的都标记成合理，导出报表是否是跳转到项目报表页？是否改成生成报表，后面报表页是导出报表
+7.审方质量评价页面，多一条记录，检查项目名称，创建时间，创建人，数据时间，评价进度是否正确
 </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加复核项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审方质量评价
-查看项目报表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看个人复核结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.查看非本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取、保存项目按钮，状态可以选择过滤。点击查看时，没有合理保存按钮，可以看到复核记录
-2.查看本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取按钮，有保存项目按钮，状态可以选择过滤。点击查看时，有合理保存按钮，可以看到复核记录，并且可以修改
-3.查看非本人报表：暗色则不可点，亮色跳转到项目报表页，可点导出报表，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成excel下载？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.查看本人报表：暗色则不可点，亮色跳转到项目报表页；添加复核项目生成报表，暗色变亮色；
+  </si>
+  <si>
+    <t>1.查看非本人项目：跳转到添加评价项目页，抽取的条件固定，没有抽取、保存项目按钮，状态可以选择过滤。点击查看时，没有合理保存按钮，可以看到评价记录
+2.查看本人项目：跳转到添加评价项目页，抽取的条件固定，没有抽取按钮，有保存项目按钮，状态可以选择过滤。点击查看时，有合理保存按钮，可以看到评价记录，并且可以修改
+3.查看非本人报表：暗色则不可点，亮色跳转到项目报表页，可点导出报表，生成excel下载？
+4.查看本人报表：暗色则不可点，亮色跳转到项目报表页；添加评价项目生成报表，暗色变亮色；
 5.本人项目可以删除，并提示是否删除；非本人项目，删除项目暗色，不可点
-6.复核进度：可以实时变化
+6.评价进度：可以实时变化
 7.页面默认20条数据，按照项目创建时间倒叙，下一页功能正常，跳转功能正常
 8.项目名称搜索功能正常，支持模糊匹配
-9.查看项目报表页，药师、样本数量、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>审核合理数量、审核不合理数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、合格率是否正确
+9.查看项目报表页，药师、样本数量、审核合理数量、审核不合理数量、合格率是否正确
 10.查看项目报表页，默认20条记录，下一页，跳转功能正常
 11.查看项目报表页，导出报表正常</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人复核结果查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.过滤条件：复核日期、复核人、来源、复核结果
+  </si>
+  <si>
+    <t>查看个人评价结果</t>
+  </si>
+  <si>
+    <t>个人评价结果查看</t>
+  </si>
+  <si>
+    <t>1.过滤条件：评价日期、评价人、来源、评价结果
 2.搜索功能正常
-3.复核结果：全部，合理，不合理，默认全部
+3.评价结果：全部，合理，不合理，默认全部
 4.默认20条记录，下一页，跳转功能正常
-5.医院、病区、科室、医生、复核人、复核时间、患者号、患者姓名、复核结果、操作
-6.点击查看或双击，进入复核详情页，复核的戳和复核记录
-7.返回列表，跳转到个人复核结果查看页（过滤条件后的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复核详情页（处方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试方案--审方质量评价（门诊处方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/deleteReplyTemplate/{replyTemplateId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/openAlertMsgDpRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打开警示信息描述按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警示信息申请状态，确认待查操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/endOfAudit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束审方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBeating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核药师工作状态心跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/releaseAuditing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束正在审核的任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置任务的审核状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditPlan/{id}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取配置的审方方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/opt/all/optRecipeList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/batchPending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extractIptCheckData</t>
-  </si>
-  <si>
-    <t>抽取住院复核数据</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/extractIptCheckData</t>
-  </si>
-  <si>
-    <t>getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>住院已复核数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>getIptCheckData</t>
-  </si>
-  <si>
-    <t>住院复核数据列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getIptCheckData</t>
-  </si>
-  <si>
-    <t>checkIptOrderData</t>
-  </si>
-  <si>
-    <t>住院医嘱复核数据详情</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/checkIptOrderData</t>
-  </si>
-  <si>
-    <t>getCheckResult</t>
-  </si>
-  <si>
-    <t>获取一组药的复核结果</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getCheckResult</t>
-  </si>
-  <si>
-    <t>saveCheckResult</t>
-  </si>
-  <si>
-    <t>保存复核结果</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/saveCheckResult</t>
-  </si>
-  <si>
-    <t>复核项目列表</t>
-  </si>
-  <si>
-    <t>获取复核项目列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/checkProjectList</t>
-  </si>
-  <si>
-    <t>查看处方列表</t>
-  </si>
-  <si>
-    <t>获取项目列表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckResultList</t>
-  </si>
-  <si>
-    <t>抽取接口</t>
-  </si>
-  <si>
-    <t>抽取调用接口</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getCheckList</t>
-  </si>
-  <si>
-    <t>获取项目条件</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getCheckResultQuery</t>
-  </si>
-  <si>
-    <t>/deleteProject</t>
-  </si>
-  <si>
-    <t>删除项目</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/deleteProject</t>
-  </si>
-  <si>
-    <t>saveProject</t>
-  </si>
-  <si>
-    <t>保存项目</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/saveProject</t>
-  </si>
-  <si>
-    <t>门诊已复核数</t>
-  </si>
-  <si>
-    <t>/opt/recipeInfo</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/recipeInfo/{optRecipeId}</t>
-  </si>
-  <si>
-    <t>saveOperation</t>
-  </si>
-  <si>
-    <t>保存复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/saveOperation</t>
-  </si>
-  <si>
-    <t>getOperation</t>
-  </si>
-  <si>
-    <t>查询复核操作</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getOperation</t>
-  </si>
-  <si>
-    <t>/opt/nextId</t>
-  </si>
-  <si>
-    <t>获取下一条处方id</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/nextId</t>
-  </si>
-  <si>
-    <t>/opt/previousId</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/previousId</t>
-  </si>
-  <si>
-    <t>查看项目报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/getReportList</t>
-  </si>
-  <si>
-    <t>/export</t>
-  </si>
-  <si>
-    <t>导出报表</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/export</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.进入新增复核项目页面，来源选择门/急诊、门诊、急诊，其余复核条件显示正确（日期、药师、抽取方式）
+5.医院、病区、科室、医生、评价人、评价时间、患者号、患者姓名、评价结果、操作
+6.点击查看或双击，进入评价详情页，评价的戳和评价记录
+7.返回列表，跳转到个人评价结果查看页（过滤条件后的）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.进入新增评价项目页面，来源选择门/急诊、门诊、急诊，其余评价条件显示正确（日期、药师、抽取方式）
 2.日期：药师审核的日期
 3.药师：显示所有审方药师供选择，支持多选
 4.来源：门/急诊、门诊、急诊、住院
 5.抽取方式：全部抽取、随机抽取两种方式；随机抽取：按百分比和按数量随机抽取；选择百分比，显示百分比输入框；选择指定数量随机，显示数量输入框，提示请输入大于0的整数
 6.抽取：点击抽取后展示符合条件的处方，按照审核时间倒叙排列；若没有抽取数据，显示“无符合条件的数据”
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.复核进度：当前复核完成的XML数/抽取的XML总数
-2.状态：全部、已复核和未复核，默认全部
-3.点击查看或者双击，进入复核详情页（处方）
-4.复核详情页（处方）基本信息（患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表）显示正确
+  </si>
+  <si>
+    <t>评价详情页（处方）</t>
+  </si>
+  <si>
+    <t>1.评价进度：当前评价完成的XML数/抽取的XML总数
+2.状态：全部、已评价和未评价，默认全部
+3.点击查看或者双击，进入评价详情页（处方）
+4.评价详情页（处方）基本信息（患者号、姓名、年龄、性别、身高、体重、体表面积、是否怀孕、孕期、是否哺乳、过敏药品列表）显示正确
 5.查看电子病历、查看检验/检查单、查看手术正确
 6.处方信息正确：包括本次处方和其他合并处方
-7.选中一条待复核的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并处方制作展示，不可点击，审核操作记录是否展示？
-8.选择合理/不合理，复核意见最多支持200个字
-9.保存：打上合理/不合理的戳，并自动跳到下一条待复核核的数据；当前全部待复核的完成后，自动跳转到下一条XML记录
-10.返回任务清单：跳转到添加复核项目页面，该条XML的状态从未复核改成已复核：复核进度相应增加一条：状态选择已复核时候，可以搜到该条记录，状态选择未复核时候，搜不到该条记录
-11.操作：查看，该条处方的复核数据都已经打上了合理/不合理的戳，并显示复核意见，复核人员是否可以重新选择是否合理？</t>
-  </si>
-  <si>
-    <r>
-      <t>1.查看非本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取、保存项目按钮，状态可以选择过滤。点击查看时，没有合理保存按钮，可以看到复核记录
-2.查看本人项目：跳转到添加复核项目页，抽取的条件固定，没有抽取按钮，有保存项目按钮，状态可以选择过滤。点击查看时，有合理保存按钮，可以看到复核记录，并且可以修改
-3.查看非本人报表：暗色则不可点，亮色跳转到项目报表页，可点导出报表，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>生成excel下载？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.查看本人报表：暗色则不可点，亮色跳转到项目报表页；添加复核项目生成报表，暗色变亮色；
+7.选中一条待评价的数据，下面是药师审核是否合理，左边是审核操作记录；其他合并处方制作展示，不可点击，审核操作记录是否展示？
+8.选择合理/不合理，评价意见最多支持200个字
+9.保存：打上合理/不合理的戳，并自动跳到下一条待评价核的数据；当前全部待评价的完成后，自动跳转到下一条XML记录
+10.返回任务清单：跳转到添加评价项目页面，该条XML的状态从未评价改成已评价：评价进度相应增加一条：状态选择已评价时候，可以搜到该条记录，状态选择未评价时候，搜不到该条记录
+11.操作：查看，该条处方的评价数据都已经打上了合理/不合理的戳，并显示评价意见，评价人员是否可以重新选择是否合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看非本人项目：跳转到添加评价项目页，抽取的条件固定，没有抽取、保存项目按钮，状态可以选择过滤。点击查看时，没有合理保存按钮，可以看到评价记录
+2.查看本人项目：跳转到添加评价项目页，抽取的条件固定，没有抽取按钮，有保存项目按钮，状态可以选择过滤。点击查看时，有合理保存按钮，可以看到评价记录，并且可以修改
+3.查看非本人报表：暗色则不可点，亮色跳转到项目报表页，可点导出报表，生成excel下载？
+4.查看本人报表：暗色则不可点，亮色跳转到项目报表页；添加评价项目生成报表，暗色变亮色；
 5.本人项目可以删除，并提示是否删除；非本人项目，删除项目暗色，不可点
-6.复核进度：可以实时变化
+6.评价进度：可以实时变化
 7.页面默认20条数据，按照项目创建时间倒叙，下一页功能正常，跳转功能正常
 8.项目名称搜索功能正常，支持模糊匹配
-9.查看项目报表页，药师、样本数量、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>审核合理数量、审核不合理数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>、合格率是否正确
+9.查看项目报表页，药师、样本数量、审核合理数量、审核不合理数量、合格率是否正确
 10.查看项目报表页，默认20条记录，下一页，跳转功能正常
 11.查看项目报表页，导出报表正常</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchAgree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditBatchRefuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量打回处方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewResultList</t>
-  </si>
-  <si>
-    <t>查询医嘱个人复合结果详情</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/reviewResultList</t>
-  </si>
-  <si>
-    <t>createProjectReport</t>
-  </si>
-  <si>
-    <t>生成项目报表</t>
-  </si>
-  <si>
-    <t>/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getAlreadyCheckNum</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/addReplyTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/nextAuditTaskId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/exportDrugMessageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找下一张审核信息的id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditresult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/medicationinfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/ipt/getVitalSignStartDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取已审处方列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/cancelgroupdrug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/resultReceive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询个人复合结果详情</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/reviewResultList</t>
-  </si>
-  <si>
-    <t>getTotalCheckNum</t>
-  </si>
-  <si>
-    <t>住院总复核数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getTotalCheckNum</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/createProjectReport</t>
-  </si>
-  <si>
-    <t>getPreviousEngineId</t>
-  </si>
-  <si>
-    <t>获取上一条记录</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getPreviousEngineId</t>
-  </si>
-  <si>
-    <t>getNextEngineId</t>
-  </si>
-  <si>
-    <t>获取下一条记录</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/ipt/getNextEngineId</t>
-  </si>
-  <si>
-    <t>/getTotalNum</t>
-  </si>
-  <si>
-    <t>门诊复合总数</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/opt/getTotalNum</t>
-  </si>
-  <si>
-    <t>/api/v1/analysis/excuteReport</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,7 +2048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2321,14 +2097,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4989,13 +4757,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B148" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C148" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -5003,13 +4771,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B149" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C149" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -5017,13 +4785,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -5031,13 +4799,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B151" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="C151" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -5045,13 +4813,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C152" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -5059,13 +4827,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B153" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -5073,13 +4841,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B154" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -5087,13 +4855,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B155" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C155" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -5101,13 +4869,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B156" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C156" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D156" t="s">
         <v>14</v>
@@ -5115,13 +4883,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C157" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -5129,13 +4897,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B158" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -5143,13 +4911,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B159" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5157,13 +4925,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B160" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -5171,13 +4939,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -5185,13 +4953,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B162" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D162" t="s">
         <v>14</v>
@@ -5199,13 +4967,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B163" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
@@ -5213,13 +4981,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C164" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D164" t="s">
         <v>79</v>
@@ -5227,13 +4995,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B165" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C165" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D165" t="s">
         <v>14</v>
@@ -5241,13 +5009,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B166" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C166" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -5255,13 +5023,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B167" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C167" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5269,13 +5037,13 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B168" t="s">
         <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -5283,13 +5051,13 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B169" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C169" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D169" t="s">
         <v>14</v>
@@ -5297,13 +5065,13 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B170" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C170" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -5311,13 +5079,13 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B171" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C171" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -5325,13 +5093,13 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B172" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -5339,13 +5107,13 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B173" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C173" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -5353,13 +5121,13 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B174" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C174" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -5367,13 +5135,13 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B175" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C175" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -5395,8 +5163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="I173" sqref="I173"/>
+    <sheetView topLeftCell="A142" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5428,7 +5196,7 @@
         <v>373</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5436,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C2" t="s">
         <v>433</v>
@@ -5455,10 +5223,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>3</v>
@@ -5516,13 +5284,13 @@
     </row>
     <row r="7" spans="1:7">
       <c r="C7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -5596,10 +5364,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C12" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>3</v>
@@ -5615,10 +5383,10 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C13" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>3</v>
@@ -5653,10 +5421,10 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>3</v>
@@ -5672,10 +5440,10 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C16" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
@@ -5732,7 +5500,7 @@
         <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>14</v>
@@ -5748,10 +5516,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="C20" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>14</v>
@@ -5770,7 +5538,7 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>14</v>
@@ -5824,16 +5592,16 @@
         <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="C24" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -5843,16 +5611,16 @@
         <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C25" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -5960,7 +5728,7 @@
         <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -6014,10 +5782,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="C34" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>14</v>
@@ -6026,7 +5794,7 @@
         <v>310</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G34" s="1">
         <v>500</v>
@@ -6577,7 +6345,7 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="C69" t="s">
         <v>146</v>
@@ -6586,7 +6354,7 @@
         <v>79</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -6964,7 +6732,7 @@
         <v>122</v>
       </c>
       <c r="C89" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>11</v>
@@ -7011,7 +6779,7 @@
         <v>310</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G91" s="1">
         <v>500</v>
@@ -7462,7 +7230,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -7516,7 +7284,7 @@
         <v>310</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G118" s="1"/>
     </row>
@@ -7563,7 +7331,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -7572,7 +7340,7 @@
         <v>310</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G121" s="1"/>
     </row>
@@ -7842,7 +7610,7 @@
         <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>14</v>
@@ -7874,7 +7642,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="C138" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>14</v>
@@ -7887,7 +7655,7 @@
     </row>
     <row r="139" spans="1:9">
       <c r="C139" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -7899,7 +7667,7 @@
         <v>372</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7963,13 +7731,13 @@
         <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -7979,10 +7747,10 @@
         <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C144" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -8052,51 +7820,51 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="B148" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C148" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F148" s="16"/>
       <c r="G148" s="1"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>543</v>
-      </c>
-      <c r="B149" t="s">
-        <v>544</v>
+        <v>529</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>530</v>
       </c>
       <c r="C149" t="s">
-        <v>545</v>
+        <v>572</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="1"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B150" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -8109,475 +7877,475 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="B151" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="C151" t="s">
+        <v>557</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" s="16" t="s">
         <v>570</v>
-      </c>
-      <c r="C151" t="s">
-        <v>571</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>584</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="1"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B152" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C152" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="1"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B153" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C153" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="1"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="B154" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C154" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="1"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B155" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C155" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="1"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B156" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C156" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="1"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B157" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C157" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F157" s="16"/>
       <c r="G157" s="1"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C158" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F158" s="16"/>
       <c r="G158" s="1"/>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="C159" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F159" s="16"/>
       <c r="G159" s="1"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B160" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F160" s="16"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B161" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C161" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F161" s="16"/>
       <c r="G161" s="1"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="B162" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F162" s="16"/>
       <c r="G162" s="1"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B163" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C163" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F163" s="16"/>
       <c r="G163" s="1"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B164" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C164" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>79</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F164" s="16"/>
       <c r="G164" s="1"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="B165" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C165" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F165" s="16"/>
       <c r="G165" s="1"/>
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B166" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C166" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F166" s="16"/>
       <c r="G166" s="1"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="C167" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="1"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B168" t="s">
         <v>119</v>
       </c>
       <c r="C168" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B169" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C169" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F169" s="16"/>
       <c r="G169" s="16"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B170" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C170" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B171" t="s">
+        <v>513</v>
+      </c>
+      <c r="C171" t="s">
+        <v>514</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="16" t="s">
         <v>524</v>
-      </c>
-      <c r="C171" t="s">
-        <v>525</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="16" t="s">
-        <v>538</v>
       </c>
       <c r="F171" s="16"/>
       <c r="G171" s="16"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B172" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C172" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B173" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C173" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
     </row>
     <row r="174" spans="1:7">
       <c r="A174" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="B174" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C174" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="B175" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C175" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -8630,8 +8398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8665,74 +8433,74 @@
         <v>436</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>445</v>
+        <v>574</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="315" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>446</v>
+        <v>575</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>447</v>
+        <v>576</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="195" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>448</v>
+        <v>578</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="270" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>452</v>
+        <v>586</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>451</v>
+        <v>580</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>453</v>
+        <v>581</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>454</v>
+        <v>582</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -8755,8 +8523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8770,7 +8538,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -8790,74 +8558,74 @@
         <v>436</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="165">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>439</v>
+        <v>573</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="255">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>455</v>
+        <v>584</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="165">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>449</v>
+        <v>577</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>448</v>
+        <v>578</v>
       </c>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="255">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="105">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>451</v>
+        <v>580</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>453</v>
+        <v>581</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>454</v>
+        <v>582</v>
       </c>
       <c r="E7" s="8"/>
     </row>

--- a/doc/审方接口和药师质量分析测试用例.xlsx
+++ b/doc/审方接口和药师质量分析测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3720" yWindow="-18700" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="588">
   <si>
     <t>alertMssageStatus</t>
   </si>
@@ -1835,10 +1835,6 @@
   </si>
   <si>
     <t>/api/v1/ipt/all/aroundAuditResultId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/api/v1/auditresult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2041,6 +2037,14 @@
 9.查看项目报表页，药师、样本数量、审核合理数量、审核不合理数量、合格率是否正确
 10.查看项目报表页，默认20条记录，下一页，跳转功能正常
 11.查看项目报表页，导出报表正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auditresult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2335,6 +2339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2353,7 +2358,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2446,37 +2450,7 @@
     <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
@@ -2493,6 +2467,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -2501,9 +2478,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2527,7 +2501,7 @@
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Description"/>
     <tableColumn id="3" name="API"/>
-    <tableColumn id="4" name="Method" dataDxfId="9"/>
+    <tableColumn id="4" name="Method" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2537,9 +2511,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表格4" displayName="表格4" ref="E1:G175" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="E1:G175"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Case" dataDxfId="7"/>
-    <tableColumn id="2" name="列1" dataDxfId="6"/>
-    <tableColumn id="3" name="列2" dataDxfId="5"/>
+    <tableColumn id="1" name="Case" dataDxfId="2"/>
+    <tableColumn id="2" name="列1" dataDxfId="1"/>
+    <tableColumn id="3" name="列2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4760,10 +4734,10 @@
         <v>529</v>
       </c>
       <c r="B148" t="s">
+        <v>552</v>
+      </c>
+      <c r="C148" t="s">
         <v>553</v>
-      </c>
-      <c r="C148" t="s">
-        <v>554</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -4799,13 +4773,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
+        <v>554</v>
+      </c>
+      <c r="B151" t="s">
         <v>555</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>556</v>
-      </c>
-      <c r="C151" t="s">
-        <v>557</v>
       </c>
       <c r="D151" t="s">
         <v>11</v>
@@ -4889,7 +4863,7 @@
         <v>533</v>
       </c>
       <c r="C157" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -4897,13 +4871,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
+        <v>558</v>
+      </c>
+      <c r="B158" t="s">
         <v>559</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>560</v>
-      </c>
-      <c r="C158" t="s">
-        <v>561</v>
       </c>
       <c r="D158" t="s">
         <v>11</v>
@@ -4911,13 +4885,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
+        <v>561</v>
+      </c>
+      <c r="B159" t="s">
         <v>562</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>563</v>
-      </c>
-      <c r="C159" t="s">
-        <v>564</v>
       </c>
       <c r="D159" t="s">
         <v>11</v>
@@ -5023,13 +4997,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" t="s">
         <v>565</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>566</v>
-      </c>
-      <c r="C167" t="s">
-        <v>567</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -5141,7 +5115,7 @@
         <v>533</v>
       </c>
       <c r="C175" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -5163,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView topLeftCell="A142" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5782,7 +5756,7 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C34" t="s">
         <v>466</v>
@@ -5794,7 +5768,7 @@
         <v>310</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G34" s="1">
         <v>500</v>
@@ -7230,7 +7204,7 @@
         <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>11</v>
@@ -7331,7 +7305,7 @@
         <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>11</v>
@@ -7610,7 +7584,7 @@
         <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>14</v>
@@ -7642,7 +7616,7 @@
     </row>
     <row r="138" spans="1:9">
       <c r="C138" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>14</v>
@@ -7654,8 +7628,11 @@
       <c r="G138" s="1"/>
     </row>
     <row r="139" spans="1:9">
+      <c r="B139" t="s">
+        <v>587</v>
+      </c>
       <c r="C139" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>11</v>
@@ -7667,7 +7644,7 @@
         <v>372</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -7823,10 +7800,10 @@
         <v>529</v>
       </c>
       <c r="B148" t="s">
+        <v>552</v>
+      </c>
+      <c r="C148" t="s">
         <v>553</v>
-      </c>
-      <c r="C148" t="s">
-        <v>554</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>11</v>
@@ -7841,11 +7818,11 @@
       <c r="A149" t="s">
         <v>529</v>
       </c>
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="17" t="s">
         <v>530</v>
       </c>
       <c r="C149" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>11</v>
@@ -7877,19 +7854,19 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
+        <v>554</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="C151" t="s">
         <v>556</v>
       </c>
-      <c r="C151" t="s">
-        <v>557</v>
-      </c>
       <c r="D151" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="1"/>
@@ -7997,7 +7974,7 @@
         <v>533</v>
       </c>
       <c r="C157" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>11</v>
@@ -8010,13 +7987,13 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
+        <v>558</v>
+      </c>
+      <c r="B158" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="B158" s="23" t="s">
+      <c r="C158" t="s">
         <v>560</v>
-      </c>
-      <c r="C158" t="s">
-        <v>561</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>11</v>
@@ -8029,13 +8006,13 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
+        <v>561</v>
+      </c>
+      <c r="B159" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="B159" s="23" t="s">
+      <c r="C159" t="s">
         <v>563</v>
-      </c>
-      <c r="C159" t="s">
-        <v>564</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>11</v>
@@ -8181,19 +8158,19 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
+        <v>564</v>
+      </c>
+      <c r="B167" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="C167" t="s">
         <v>566</v>
       </c>
-      <c r="C167" t="s">
-        <v>567</v>
-      </c>
       <c r="D167" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F167" s="16"/>
       <c r="G167" s="1"/>
@@ -8288,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
@@ -8307,7 +8284,7 @@
         <v>11</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F173" s="16"/>
       <c r="G173" s="16"/>
@@ -8326,7 +8303,7 @@
         <v>11</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
@@ -8339,13 +8316,13 @@
         <v>533</v>
       </c>
       <c r="C175" t="s">
+        <v>567</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="16" t="s">
         <v>568</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="16" t="s">
-        <v>569</v>
       </c>
       <c r="F175" s="16"/>
       <c r="G175" s="16"/>
@@ -8371,12 +8348,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E176 I140 F177 E179:E1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F178">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8398,7 +8375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -8412,12 +8389,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="12" t="s">
         <v>437</v>
       </c>
@@ -8445,10 +8422,10 @@
         <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -8458,10 +8435,10 @@
         <v>443</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>576</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -8471,10 +8448,10 @@
         <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -8487,20 +8464,20 @@
         <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="120">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>582</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -8537,12 +8514,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="5" t="s">
         <v>437</v>
       </c>
@@ -8570,10 +8547,10 @@
         <v>440</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E3" s="8"/>
     </row>
@@ -8583,10 +8560,10 @@
         <v>443</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="E4" s="8"/>
     </row>
@@ -8596,10 +8573,10 @@
         <v>441</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="E5" s="8"/>
     </row>
@@ -8612,20 +8589,20 @@
         <v>444</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" ht="105">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>582</v>
       </c>
       <c r="E7" s="8"/>
     </row>
